--- a/attachments/Deviations Notifications_PS4.XLSX
+++ b/attachments/Deviations Notifications_PS4.XLSX
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="337">
   <si>
     <t/>
   </si>
@@ -133,6 +133,21 @@
     <t>OSNO NOTI OSTS</t>
   </si>
   <si>
+    <t>310000000052</t>
+  </si>
+  <si>
+    <t>Build without Component</t>
+  </si>
+  <si>
+    <t>5014365A</t>
+  </si>
+  <si>
+    <t>HOSE ASSY -10 BULKHEAD TO COMP MO-F59</t>
+  </si>
+  <si>
+    <t>NOCO NOTE ATCO</t>
+  </si>
+  <si>
     <t>D2</t>
   </si>
   <si>
@@ -235,9 +250,6 @@
     <t>Deviation Approval - valid 3 months</t>
   </si>
   <si>
-    <t>NOCO NOTE ATCO</t>
-  </si>
-  <si>
     <t>320000000111</t>
   </si>
   <si>
@@ -427,6 +439,21 @@
     <t>60S TM WP 9005 B PMMA L1100 W1800 R0</t>
   </si>
   <si>
+    <t>320000000140</t>
+  </si>
+  <si>
+    <t>CS: STANDARD PARTS WPNA EC:358621/620495</t>
+  </si>
+  <si>
+    <t>5013853B</t>
+  </si>
+  <si>
+    <t>LID ASSEMBLY THERMO E PLUS</t>
+  </si>
+  <si>
+    <t>600000018356</t>
+  </si>
+  <si>
     <t>D3</t>
   </si>
   <si>
@@ -805,9 +832,6 @@
     <t>330000000102</t>
   </si>
   <si>
-    <t>CS: STANDARD PARTS WPNA EC:358621/620495</t>
-  </si>
-  <si>
     <t>5013852B</t>
   </si>
   <si>
@@ -824,6 +848,69 @@
   </si>
   <si>
     <t>AT2000STC 12V D SMTP 3.0_BT SLEEPER KIT</t>
+  </si>
+  <si>
+    <t>330000000104</t>
+  </si>
+  <si>
+    <t>3D printed in PA12 instead of anod alu</t>
+  </si>
+  <si>
+    <t>3318285A</t>
+  </si>
+  <si>
+    <t>CONNECTOR DS LH W44</t>
+  </si>
+  <si>
+    <t>330000000105</t>
+  </si>
+  <si>
+    <t>3318286A</t>
+  </si>
+  <si>
+    <t>CONNECTOR DS RH W44</t>
+  </si>
+  <si>
+    <t>330000000106</t>
+  </si>
+  <si>
+    <t>5014251A</t>
+  </si>
+  <si>
+    <t>THERMO E PLUS 32 kW 24V HD EB KIT</t>
+  </si>
+  <si>
+    <t>330000000107</t>
+  </si>
+  <si>
+    <t>Hose clamp doesn't meet requirements</t>
+  </si>
+  <si>
+    <t>2112942A</t>
+  </si>
+  <si>
+    <t>12mm S_Steel 1.4547 clip 277-307mm</t>
+  </si>
+  <si>
+    <t>3-Medium</t>
+  </si>
+  <si>
+    <t>SAP_WFRT</t>
+  </si>
+  <si>
+    <t>30000000322</t>
+  </si>
+  <si>
+    <t>Q3-INT</t>
+  </si>
+  <si>
+    <t>Internal Complaint</t>
+  </si>
+  <si>
+    <t>0040</t>
+  </si>
+  <si>
+    <t>ME</t>
   </si>
   <si>
     <t>Exception</t>
@@ -1253,13 +1340,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture@0A@" descr="@0A@"/>
+        <xdr:cNvPr id="4" name="Picture@09@" descr="@09@"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
@@ -1400,13 +1487,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture@09@" descr="@09@"/>
+        <xdr:cNvPr id="7" name="Picture@0A@" descr="@0A@"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
@@ -1498,13 +1585,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture@0A@" descr="@0A@"/>
+        <xdr:cNvPr id="9" name="Picture@09@" descr="@09@"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
@@ -1743,13 +1830,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture@09@" descr="@09@"/>
+        <xdr:cNvPr id="14" name="Picture@0A@" descr="@0A@"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
@@ -1792,13 +1879,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture@09@" descr="@09@"/>
+        <xdr:cNvPr id="15" name="Picture@0A@" descr="@0A@"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
@@ -1890,13 +1977,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture@0A@" descr="@0A@"/>
+        <xdr:cNvPr id="17" name="Picture@09@" descr="@09@"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
@@ -1988,13 +2075,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture@09@" descr="@09@"/>
+        <xdr:cNvPr id="19" name="Picture@0A@" descr="@0A@"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
@@ -2331,13 +2418,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture@0A@" descr="@0A@"/>
+        <xdr:cNvPr id="26" name="Picture@09@" descr="@09@"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
@@ -2380,13 +2467,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture@0A@" descr="@0A@"/>
+        <xdr:cNvPr id="27" name="Picture@09@" descr="@09@"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
@@ -2429,13 +2516,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture@09@" descr="@09@"/>
+        <xdr:cNvPr id="28" name="Picture@0A@" descr="@0A@"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
@@ -2576,13 +2663,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Picture@09@" descr="@09@"/>
+        <xdr:cNvPr id="31" name="Picture@0A@" descr="@0A@"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
@@ -2674,13 +2761,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Picture@0A@" descr="@0A@"/>
+        <xdr:cNvPr id="33" name="Picture@09@" descr="@09@"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
@@ -2821,7 +2908,56 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Picture@0A@" descr="@0A@"/>
+        <xdr:cNvPr id="36" name="Picture@09@" descr="@09@"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5334000" y="161925"/>
+          <a:ext cx="152400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture@0A@" descr="@0A@"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2859,18 +2995,67 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Picture@09@" descr="@09@"/>
+        <xdr:cNvPr id="38" name="Picture@0A@" descr="@0A@"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5334000" y="161925"/>
+          <a:ext cx="152400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture@09@" descr="@09@"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2908,18 +3093,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Picture@09@" descr="@09@"/>
+        <xdr:cNvPr id="40" name="Picture@09@" descr="@09@"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2957,18 +3142,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Picture@0A@" descr="@0A@"/>
+        <xdr:cNvPr id="41" name="Picture@0A@" descr="@0A@"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3006,122 +3191,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Picture@0A@" descr="@0A@"/>
+        <xdr:cNvPr id="42" name="Picture@0A@" descr="@0A@"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5334000" y="161925"/>
-          <a:ext cx="152400" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Picture@09@" descr="@09@"/>
-        <xdr:cNvPicPr preferRelativeResize="0">
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5334000" y="161925"/>
-          <a:ext cx="152400" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Picture@09@" descr="@09@"/>
-        <xdr:cNvPicPr preferRelativeResize="0">
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
@@ -3443,12 +3530,306 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture@09@" descr="@09@"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5334000" y="161925"/>
+          <a:ext cx="152400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Picture@09@" descr="@09@"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5334000" y="161925"/>
+          <a:ext cx="152400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture@09@" descr="@09@"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5334000" y="161925"/>
+          <a:ext cx="152400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Picture@09@" descr="@09@"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5334000" y="161925"/>
+          <a:ext cx="152400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Picture@09@" descr="@09@"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5334000" y="161925"/>
+          <a:ext cx="152400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture@09@" descr="@09@"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5334000" y="161925"/>
+          <a:ext cx="152400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK50"/>
+  <dimension ref="A1:AK56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3497,115 +3878,115 @@
   <sheetData>
     <row r="1" spans="1:37">
       <c r="A1" s="1" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>304</v>
+        <v>333</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>305</v>
+        <v>334</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>306</v>
+        <v>335</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>307</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="15" customHeight="1">
@@ -4050,55 +4431,53 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>40</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>41</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
         <v>42</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>43</v>
       </c>
-      <c r="G6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" t="s">
-        <v>45</v>
-      </c>
       <c r="I6" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="L6" s="3">
-        <v>45671</v>
-      </c>
-      <c r="M6" s="3">
-        <v>45688</v>
-      </c>
+        <v>46007</v>
+      </c>
+      <c r="M6" s="3"/>
       <c r="N6" t="s">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="P6" s="3">
-        <v>45671</v>
+        <v>46007</v>
       </c>
       <c r="Q6" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="R6" s="3">
-        <v>45671</v>
+        <v>46007</v>
       </c>
       <c r="S6" s="3">
-        <v>45671</v>
+        <v>46007</v>
       </c>
       <c r="T6" t="s">
         <v>0</v>
@@ -4125,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="AB6" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="AC6" s="4">
         <v>0</v>
@@ -4138,10 +4517,10 @@
       </c>
       <c r="AF6" s="3"/>
       <c r="AG6" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="AH6" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="AI6" t="s">
         <v>16</v>
@@ -4150,7 +4529,7 @@
         <v>17</v>
       </c>
       <c r="AK6" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:37" ht="15" customHeight="1">
@@ -4161,55 +4540,55 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" t="s">
         <v>52</v>
       </c>
-      <c r="E7" t="s">
+      <c r="L7" s="3">
+        <v>45671</v>
+      </c>
+      <c r="M7" s="3">
+        <v>45688</v>
+      </c>
+      <c r="N7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
         <v>53</v>
-      </c>
-      <c r="F7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L7" s="3">
-        <v>45673</v>
-      </c>
-      <c r="M7" s="3">
-        <v>45762</v>
-      </c>
-      <c r="N7" t="s">
-        <v>58</v>
-      </c>
-      <c r="O7" t="s">
-        <v>59</v>
       </c>
       <c r="P7" s="3">
         <v>45671</v>
       </c>
       <c r="Q7" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="R7" s="3">
-        <v>45868</v>
+        <v>45671</v>
       </c>
       <c r="S7" s="3">
-        <v>45868</v>
+        <v>45671</v>
       </c>
       <c r="T7" t="s">
         <v>0</v>
@@ -4227,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="4">
         <v>0</v>
@@ -4236,32 +4615,32 @@
         <v>0</v>
       </c>
       <c r="AB7" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="AC7" s="4">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="4">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="4">
         <v>0</v>
       </c>
       <c r="AF7" s="3"/>
       <c r="AG7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="AH7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AI7" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="AJ7" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="AK7" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:37" ht="15" customHeight="1">
@@ -4272,55 +4651,55 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
         <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I8" t="s">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="K8" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="L8" s="3">
-        <v>45713</v>
+        <v>45673</v>
       </c>
       <c r="M8" s="3">
-        <v>45962</v>
+        <v>45762</v>
       </c>
       <c r="N8" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="P8" s="3">
-        <v>45713</v>
+        <v>45671</v>
       </c>
       <c r="Q8" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R8" s="3">
-        <v>45772</v>
+        <v>45868</v>
       </c>
       <c r="S8" s="3">
-        <v>45772</v>
+        <v>45868</v>
       </c>
       <c r="T8" t="s">
         <v>0</v>
@@ -4338,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="Z8" s="4">
         <v>0</v>
@@ -4350,29 +4729,29 @@
         <v>13</v>
       </c>
       <c r="AC8" s="4">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD8" s="4">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE8" s="4">
         <v>0</v>
       </c>
       <c r="AF8" s="3"/>
       <c r="AG8" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="AH8" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="AJ8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AK8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:37" ht="15" customHeight="1">
@@ -4383,56 +4762,58 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
         <v>75</v>
       </c>
-      <c r="E9" t="s">
+      <c r="K9" t="s">
         <v>76</v>
       </c>
-      <c r="F9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H9" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>79</v>
-      </c>
-      <c r="K9" t="s">
-        <v>80</v>
-      </c>
       <c r="L9" s="3">
-        <v>45736</v>
-      </c>
-      <c r="M9" s="3"/>
+        <v>45713</v>
+      </c>
+      <c r="M9" s="3">
+        <v>45962</v>
+      </c>
       <c r="N9" t="s">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="P9" s="3">
-        <v>45736</v>
+        <v>45713</v>
       </c>
       <c r="Q9" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="R9" s="3">
-        <v>45882</v>
+        <v>45772</v>
       </c>
       <c r="S9" s="3">
-        <v>45882</v>
+        <v>45772</v>
       </c>
       <c r="T9" t="s">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="U9" t="s">
         <v>11</v>
@@ -4459,29 +4840,29 @@
         <v>13</v>
       </c>
       <c r="AC9" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD9" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="4">
         <v>0</v>
       </c>
       <c r="AF9" s="3"/>
       <c r="AG9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AH9" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AI9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AJ9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AK9" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:37" ht="15" customHeight="1">
@@ -4492,31 +4873,31 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
         <v>83</v>
       </c>
-      <c r="E10" t="s">
+      <c r="K10" t="s">
         <v>84</v>
-      </c>
-      <c r="F10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" t="s">
-        <v>86</v>
-      </c>
-      <c r="I10" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10" t="s">
-        <v>80</v>
       </c>
       <c r="L10" s="3">
         <v>45736</v>
@@ -4526,13 +4907,13 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P10" s="3">
         <v>45736</v>
       </c>
       <c r="Q10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="R10" s="3">
         <v>45882</v>
@@ -4541,7 +4922,7 @@
         <v>45882</v>
       </c>
       <c r="T10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U10" t="s">
         <v>11</v>
@@ -4568,26 +4949,26 @@
         <v>13</v>
       </c>
       <c r="AC10" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AD10" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AE10" s="4">
         <v>0</v>
       </c>
       <c r="AF10" s="3"/>
       <c r="AG10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AH10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AI10" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AJ10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AK10" t="s">
         <v>18</v>
@@ -4601,58 +4982,56 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" t="s">
         <v>88</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" t="s">
         <v>89</v>
       </c>
-      <c r="F11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>90</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="3">
+        <v>45736</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>85</v>
+      </c>
+      <c r="P11" s="3">
+        <v>45736</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>85</v>
+      </c>
+      <c r="R11" s="3">
+        <v>45882</v>
+      </c>
+      <c r="S11" s="3">
+        <v>45882</v>
+      </c>
+      <c r="T11" t="s">
         <v>91</v>
-      </c>
-      <c r="I11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
-        <v>79</v>
-      </c>
-      <c r="K11" t="s">
-        <v>80</v>
-      </c>
-      <c r="L11" s="3">
-        <v>45747</v>
-      </c>
-      <c r="M11" s="3">
-        <v>45838</v>
-      </c>
-      <c r="N11" t="s">
-        <v>0</v>
-      </c>
-      <c r="O11" t="s">
-        <v>81</v>
-      </c>
-      <c r="P11" s="3">
-        <v>45747</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>81</v>
-      </c>
-      <c r="R11" s="3">
-        <v>45824</v>
-      </c>
-      <c r="S11" s="3">
-        <v>45824</v>
-      </c>
-      <c r="T11" t="s">
-        <v>92</v>
       </c>
       <c r="U11" t="s">
         <v>11</v>
@@ -4679,26 +5058,26 @@
         <v>13</v>
       </c>
       <c r="AC11" s="4">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AD11" s="4">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AE11" s="4">
         <v>0</v>
       </c>
       <c r="AF11" s="3"/>
       <c r="AG11" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AH11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AI11" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AJ11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AK11" t="s">
         <v>18</v>
@@ -4712,58 +5091,58 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" t="s">
         <v>93</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" t="s">
         <v>94</v>
       </c>
-      <c r="F12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>95</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L12" s="3">
+        <v>45747</v>
+      </c>
+      <c r="M12" s="3">
+        <v>45838</v>
+      </c>
+      <c r="N12" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="3">
+        <v>45747</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>85</v>
+      </c>
+      <c r="R12" s="3">
+        <v>45824</v>
+      </c>
+      <c r="S12" s="3">
+        <v>45824</v>
+      </c>
+      <c r="T12" t="s">
         <v>96</v>
-      </c>
-      <c r="I12" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K12" t="s">
-        <v>57</v>
-      </c>
-      <c r="L12" s="3">
-        <v>45750</v>
-      </c>
-      <c r="M12" s="3">
-        <v>45839</v>
-      </c>
-      <c r="N12" t="s">
-        <v>0</v>
-      </c>
-      <c r="O12" t="s">
-        <v>59</v>
-      </c>
-      <c r="P12" s="3">
-        <v>45750</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>10</v>
-      </c>
-      <c r="R12" s="3">
-        <v>45868</v>
-      </c>
-      <c r="S12" s="3">
-        <v>45868</v>
-      </c>
-      <c r="T12" t="s">
-        <v>0</v>
       </c>
       <c r="U12" t="s">
         <v>11</v>
@@ -4790,29 +5169,29 @@
         <v>13</v>
       </c>
       <c r="AC12" s="4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD12" s="4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE12" s="4">
         <v>0</v>
       </c>
       <c r="AF12" s="3"/>
       <c r="AG12" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AH12" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AI12" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AJ12" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AK12" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="15" customHeight="1">
@@ -4823,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
         <v>97</v>
@@ -4844,33 +5223,35 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="K13" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="L13" s="3">
-        <v>45820</v>
+        <v>45750</v>
       </c>
       <c r="M13" s="3">
-        <v>45910</v>
+        <v>45839</v>
       </c>
       <c r="N13" t="s">
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="P13" s="3">
-        <v>45820</v>
+        <v>45750</v>
       </c>
       <c r="Q13" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R13" s="3">
-        <v>45820</v>
-      </c>
-      <c r="S13" s="3"/>
+        <v>45868</v>
+      </c>
+      <c r="S13" s="3">
+        <v>45868</v>
+      </c>
       <c r="T13" t="s">
         <v>0</v>
       </c>
@@ -4887,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="4">
         <v>0</v>
@@ -4909,19 +5290,19 @@
       </c>
       <c r="AF13" s="3"/>
       <c r="AG13" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AH13" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AI13" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AJ13" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AK13" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:37" ht="15" customHeight="1">
@@ -4932,56 +5313,54 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F14" t="s">
         <v>4</v>
       </c>
       <c r="G14" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I14" t="s">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L14" s="3">
-        <v>45866</v>
+        <v>45820</v>
       </c>
       <c r="M14" s="3">
-        <v>45957</v>
+        <v>45910</v>
       </c>
       <c r="N14" t="s">
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="P14" s="3">
-        <v>45861</v>
+        <v>45820</v>
       </c>
       <c r="Q14" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="R14" s="3">
-        <v>45868</v>
-      </c>
-      <c r="S14" s="3">
-        <v>45868</v>
-      </c>
+        <v>45820</v>
+      </c>
+      <c r="S14" s="3"/>
       <c r="T14" t="s">
         <v>0</v>
       </c>
@@ -4998,7 +5377,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="Z14" s="4">
         <v>0</v>
@@ -5020,19 +5399,19 @@
       </c>
       <c r="AF14" s="3"/>
       <c r="AG14" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AH14" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AI14" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AJ14" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AK14" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:37" ht="15" customHeight="1">
@@ -5043,55 +5422,55 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F15" t="s">
         <v>4</v>
       </c>
       <c r="G15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" t="s">
+        <v>112</v>
+      </c>
+      <c r="I15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
         <v>113</v>
       </c>
-      <c r="H15" t="s">
+      <c r="K15" t="s">
         <v>114</v>
       </c>
-      <c r="I15" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
-        <v>115</v>
-      </c>
-      <c r="K15" t="s">
-        <v>116</v>
-      </c>
       <c r="L15" s="3">
-        <v>45881</v>
+        <v>45866</v>
       </c>
       <c r="M15" s="3">
-        <v>45968</v>
+        <v>45957</v>
       </c>
       <c r="N15" t="s">
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="P15" s="3">
-        <v>45881</v>
+        <v>45861</v>
       </c>
       <c r="Q15" t="s">
         <v>10</v>
       </c>
       <c r="R15" s="3">
-        <v>45929</v>
+        <v>45868</v>
       </c>
       <c r="S15" s="3">
-        <v>45929</v>
+        <v>45868</v>
       </c>
       <c r="T15" t="s">
         <v>0</v>
@@ -5109,7 +5488,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="4">
         <v>0</v>
@@ -5131,19 +5510,19 @@
       </c>
       <c r="AF15" s="3"/>
       <c r="AG15" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="AH15" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="AI15" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="AJ15" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="AK15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:37" ht="15" customHeight="1">
@@ -5154,55 +5533,55 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F16" t="s">
         <v>4</v>
       </c>
       <c r="G16" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="H16" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="I16" t="s">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="K16" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="L16" s="3">
-        <v>45931</v>
+        <v>45881</v>
       </c>
       <c r="M16" s="3">
-        <v>46022</v>
+        <v>45968</v>
       </c>
       <c r="N16" t="s">
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="P16" s="3">
-        <v>45931</v>
+        <v>45881</v>
       </c>
       <c r="Q16" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="R16" s="3">
-        <v>45938</v>
+        <v>45929</v>
       </c>
       <c r="S16" s="3">
-        <v>45938</v>
+        <v>45929</v>
       </c>
       <c r="T16" t="s">
         <v>0</v>
@@ -5220,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="s">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="Z16" s="4">
         <v>0</v>
@@ -5242,19 +5621,19 @@
       </c>
       <c r="AF16" s="3"/>
       <c r="AG16" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="AH16" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="AI16" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="AJ16" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="AK16" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:37" ht="15" customHeight="1">
@@ -5265,52 +5644,56 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
         <v>128</v>
       </c>
-      <c r="E17" t="s">
+      <c r="H17" t="s">
         <v>129</v>
       </c>
-      <c r="F17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="I17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
         <v>130</v>
       </c>
-      <c r="H17" t="s">
+      <c r="K17" t="s">
         <v>131</v>
       </c>
-      <c r="I17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s">
-        <v>132</v>
-      </c>
-      <c r="K17" t="s">
-        <v>133</v>
-      </c>
       <c r="L17" s="3">
-        <v>45943</v>
-      </c>
-      <c r="M17" s="3"/>
+        <v>45931</v>
+      </c>
+      <c r="M17" s="3">
+        <v>46022</v>
+      </c>
       <c r="N17" t="s">
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="P17" s="3">
-        <v>45943</v>
+        <v>45931</v>
       </c>
       <c r="Q17" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="R17" s="3">
-        <v>45943</v>
-      </c>
-      <c r="S17" s="3"/>
+        <v>45938</v>
+      </c>
+      <c r="S17" s="3">
+        <v>45938</v>
+      </c>
       <c r="T17" t="s">
         <v>0</v>
       </c>
@@ -5349,19 +5732,19 @@
       </c>
       <c r="AF17" s="3"/>
       <c r="AG17" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AH17" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AI17" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AJ17" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AK17" t="s">
-        <v>134</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:37" ht="15" customHeight="1">
@@ -5372,31 +5755,31 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" t="s">
+        <v>134</v>
+      </c>
+      <c r="H18" t="s">
         <v>135</v>
       </c>
-      <c r="E18" t="s">
-        <v>129</v>
-      </c>
-      <c r="F18" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="I18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
         <v>136</v>
       </c>
-      <c r="H18" t="s">
+      <c r="K18" t="s">
         <v>137</v>
-      </c>
-      <c r="I18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s">
-        <v>132</v>
-      </c>
-      <c r="K18" t="s">
-        <v>133</v>
       </c>
       <c r="L18" s="3">
         <v>45943</v>
@@ -5406,15 +5789,17 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P18" s="3">
         <v>45943</v>
       </c>
       <c r="Q18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="R18" s="3">
+        <v>45943</v>
+      </c>
       <c r="S18" s="3"/>
       <c r="T18" t="s">
         <v>0</v>
@@ -5454,19 +5839,19 @@
       </c>
       <c r="AF18" s="3"/>
       <c r="AG18" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AH18" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AI18" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AJ18" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AK18" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:37" ht="15" customHeight="1">
@@ -5477,56 +5862,50 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
         <v>139</v>
       </c>
       <c r="E19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" t="s">
         <v>140</v>
       </c>
-      <c r="F19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" t="s">
-        <v>44</v>
-      </c>
       <c r="H19" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="I19" t="s">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="K19" t="s">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="L19" s="3">
-        <v>45671</v>
-      </c>
-      <c r="M19" s="3">
-        <v>45711</v>
-      </c>
+        <v>45943</v>
+      </c>
+      <c r="M19" s="3"/>
       <c r="N19" t="s">
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="P19" s="3">
-        <v>45671</v>
+        <v>45943</v>
       </c>
       <c r="Q19" t="s">
-        <v>48</v>
-      </c>
-      <c r="R19" s="3">
-        <v>45671</v>
-      </c>
-      <c r="S19" s="3">
-        <v>45671</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
       <c r="T19" t="s">
         <v>0</v>
       </c>
@@ -5552,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="AB19" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="AC19" s="4">
         <v>0</v>
@@ -5565,19 +5944,19 @@
       </c>
       <c r="AF19" s="3"/>
       <c r="AG19" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="AH19" t="s">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="AI19" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="AJ19" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="AK19" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:37" ht="15" customHeight="1">
@@ -5588,54 +5967,52 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F20" t="s">
         <v>4</v>
       </c>
       <c r="G20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I20" t="s">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="K20" t="s">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L20" s="3">
-        <v>45686</v>
-      </c>
-      <c r="M20" s="3"/>
+        <v>46009</v>
+      </c>
+      <c r="M20" s="3">
+        <v>46098</v>
+      </c>
       <c r="N20" t="s">
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="P20" s="3">
-        <v>45686</v>
+        <v>46007</v>
       </c>
       <c r="Q20" t="s">
-        <v>10</v>
-      </c>
-      <c r="R20" s="3">
-        <v>45686</v>
-      </c>
-      <c r="S20" s="3">
-        <v>45686</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
       <c r="T20" t="s">
         <v>0</v>
       </c>
@@ -5652,7 +6029,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="s">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="Z20" s="4">
         <v>0</v>
@@ -5674,19 +6051,19 @@
       </c>
       <c r="AF20" s="3"/>
       <c r="AG20" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="AH20" t="s">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="AI20" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="AJ20" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="AK20" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:37" ht="15" customHeight="1">
@@ -5697,22 +6074,22 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D21" t="s">
         <v>148</v>
       </c>
       <c r="E21" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F21" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="G21" t="s">
-        <v>149</v>
+        <v>49</v>
       </c>
       <c r="H21" t="s">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="I21" t="s">
         <v>0</v>
@@ -5724,26 +6101,28 @@
         <v>0</v>
       </c>
       <c r="L21" s="3">
-        <v>45686</v>
-      </c>
-      <c r="M21" s="3"/>
+        <v>45671</v>
+      </c>
+      <c r="M21" s="3">
+        <v>45711</v>
+      </c>
       <c r="N21" t="s">
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="P21" s="3">
-        <v>45686</v>
+        <v>45671</v>
       </c>
       <c r="Q21" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="R21" s="3">
-        <v>45686</v>
+        <v>45671</v>
       </c>
       <c r="S21" s="3">
-        <v>45686</v>
+        <v>45671</v>
       </c>
       <c r="T21" t="s">
         <v>0</v>
@@ -5770,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="AB21" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="AC21" s="4">
         <v>0</v>
@@ -5783,10 +6162,10 @@
       </c>
       <c r="AF21" s="3"/>
       <c r="AG21" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AH21" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AI21" t="s">
         <v>16</v>
@@ -5795,7 +6174,7 @@
         <v>17</v>
       </c>
       <c r="AK21" t="s">
-        <v>65</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:37" ht="15" customHeight="1">
@@ -5806,22 +6185,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E22" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F22" t="s">
         <v>4</v>
       </c>
       <c r="G22" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H22" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I22" t="s">
         <v>0</v>
@@ -5892,10 +6271,10 @@
       </c>
       <c r="AF22" s="3"/>
       <c r="AG22" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AH22" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AI22" t="s">
         <v>16</v>
@@ -5904,7 +6283,7 @@
         <v>17</v>
       </c>
       <c r="AK22" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:37" ht="15" customHeight="1">
@@ -5915,22 +6294,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E23" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F23" t="s">
         <v>4</v>
       </c>
       <c r="G23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I23" t="s">
         <v>0</v>
@@ -5942,26 +6321,26 @@
         <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>45705</v>
+        <v>45686</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" t="s">
         <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P23" s="3">
-        <v>45705</v>
+        <v>45686</v>
       </c>
       <c r="Q23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R23" s="3">
-        <v>45706</v>
+        <v>45686</v>
       </c>
       <c r="S23" s="3">
-        <v>45706</v>
+        <v>45686</v>
       </c>
       <c r="T23" t="s">
         <v>0</v>
@@ -6001,10 +6380,10 @@
       </c>
       <c r="AF23" s="3"/>
       <c r="AG23" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AH23" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AI23" t="s">
         <v>16</v>
@@ -6013,7 +6392,7 @@
         <v>17</v>
       </c>
       <c r="AK23" t="s">
-        <v>143</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:37" ht="15" customHeight="1">
@@ -6024,22 +6403,22 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F24" t="s">
         <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I24" t="s">
         <v>0</v>
@@ -6051,7 +6430,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
-        <v>45714</v>
+        <v>45686</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" t="s">
@@ -6061,16 +6440,16 @@
         <v>10</v>
       </c>
       <c r="P24" s="3">
-        <v>45715</v>
+        <v>45686</v>
       </c>
       <c r="Q24" t="s">
         <v>10</v>
       </c>
       <c r="R24" s="3">
-        <v>45748</v>
+        <v>45686</v>
       </c>
       <c r="S24" s="3">
-        <v>45748</v>
+        <v>45686</v>
       </c>
       <c r="T24" t="s">
         <v>0</v>
@@ -6110,19 +6489,19 @@
       </c>
       <c r="AF24" s="3"/>
       <c r="AG24" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AH24" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AI24" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="AJ24" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="AK24" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:37" ht="15" customHeight="1">
@@ -6133,22 +6512,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F25" t="s">
         <v>4</v>
       </c>
       <c r="G25" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H25" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I25" t="s">
         <v>0</v>
@@ -6160,26 +6539,26 @@
         <v>0</v>
       </c>
       <c r="L25" s="3">
-        <v>45727</v>
+        <v>45705</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" t="s">
         <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P25" s="3">
-        <v>45727</v>
+        <v>45705</v>
       </c>
       <c r="Q25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R25" s="3">
-        <v>45748</v>
+        <v>45706</v>
       </c>
       <c r="S25" s="3">
-        <v>45748</v>
+        <v>45706</v>
       </c>
       <c r="T25" t="s">
         <v>0</v>
@@ -6219,19 +6598,19 @@
       </c>
       <c r="AF25" s="3"/>
       <c r="AG25" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AH25" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AI25" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="AJ25" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="AK25" t="s">
-        <v>65</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:37" ht="15" customHeight="1">
@@ -6242,22 +6621,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E26" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H26" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I26" t="s">
         <v>0</v>
@@ -6269,25 +6648,27 @@
         <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>45737</v>
+        <v>45714</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" t="s">
         <v>0</v>
       </c>
       <c r="O26" t="s">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="P26" s="3">
-        <v>45737</v>
+        <v>45715</v>
       </c>
       <c r="Q26" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="R26" s="3">
-        <v>45779</v>
-      </c>
-      <c r="S26" s="3"/>
+        <v>45748</v>
+      </c>
+      <c r="S26" s="3">
+        <v>45748</v>
+      </c>
       <c r="T26" t="s">
         <v>0</v>
       </c>
@@ -6326,19 +6707,19 @@
       </c>
       <c r="AF26" s="3"/>
       <c r="AG26" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AH26" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AI26" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AJ26" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AK26" t="s">
-        <v>172</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:37" ht="15" customHeight="1">
@@ -6349,23 +6730,23 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D27" t="s">
+        <v>172</v>
+      </c>
+      <c r="E27" t="s">
         <v>173</v>
-      </c>
-      <c r="E27" t="s">
-        <v>174</v>
       </c>
       <c r="F27" t="s">
         <v>4</v>
       </c>
       <c r="G27" t="s">
+        <v>174</v>
+      </c>
+      <c r="H27" t="s">
         <v>175</v>
       </c>
-      <c r="H27" t="s">
-        <v>176</v>
-      </c>
       <c r="I27" t="s">
         <v>0</v>
       </c>
@@ -6376,7 +6757,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>45744</v>
+        <v>45727</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" t="s">
@@ -6386,7 +6767,7 @@
         <v>10</v>
       </c>
       <c r="P27" s="3">
-        <v>45744</v>
+        <v>45727</v>
       </c>
       <c r="Q27" t="s">
         <v>10</v>
@@ -6435,19 +6816,19 @@
       </c>
       <c r="AF27" s="3"/>
       <c r="AG27" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AH27" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AI27" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AJ27" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AK27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:37" ht="15" customHeight="1">
@@ -6458,56 +6839,52 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D28" t="s">
+        <v>176</v>
+      </c>
+      <c r="E28" t="s">
         <v>177</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" t="s">
         <v>178</v>
       </c>
-      <c r="F28" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>179</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
+        <v>45737</v>
+      </c>
+      <c r="M28" s="3"/>
+      <c r="N28" t="s">
+        <v>0</v>
+      </c>
+      <c r="O28" t="s">
         <v>180</v>
       </c>
-      <c r="I28" t="s">
-        <v>0</v>
-      </c>
-      <c r="J28" t="s">
-        <v>0</v>
-      </c>
-      <c r="K28" t="s">
-        <v>0</v>
-      </c>
-      <c r="L28" s="3">
-        <v>45771</v>
-      </c>
-      <c r="M28" s="3">
-        <v>45802</v>
-      </c>
-      <c r="N28" t="s">
-        <v>0</v>
-      </c>
-      <c r="O28" t="s">
-        <v>9</v>
-      </c>
       <c r="P28" s="3">
-        <v>45771</v>
+        <v>45737</v>
       </c>
       <c r="Q28" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="R28" s="3">
-        <v>45891</v>
-      </c>
-      <c r="S28" s="3">
-        <v>45785</v>
-      </c>
+        <v>45779</v>
+      </c>
+      <c r="S28" s="3"/>
       <c r="T28" t="s">
         <v>0</v>
       </c>
@@ -6546,19 +6923,19 @@
       </c>
       <c r="AF28" s="3"/>
       <c r="AG28" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AH28" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AI28" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="AJ28" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="AK28" t="s">
-        <v>65</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:37" ht="15" customHeight="1">
@@ -6569,22 +6946,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D29" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E29" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F29" t="s">
         <v>4</v>
       </c>
       <c r="G29" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H29" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I29" t="s">
         <v>0</v>
@@ -6596,11 +6973,9 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
-        <v>45772</v>
-      </c>
-      <c r="M29" s="3">
-        <v>45803</v>
-      </c>
+        <v>45744</v>
+      </c>
+      <c r="M29" s="3"/>
       <c r="N29" t="s">
         <v>0</v>
       </c>
@@ -6608,16 +6983,16 @@
         <v>10</v>
       </c>
       <c r="P29" s="3">
-        <v>45772</v>
+        <v>45744</v>
       </c>
       <c r="Q29" t="s">
         <v>10</v>
       </c>
       <c r="R29" s="3">
-        <v>45891</v>
+        <v>45748</v>
       </c>
       <c r="S29" s="3">
-        <v>45793</v>
+        <v>45748</v>
       </c>
       <c r="T29" t="s">
         <v>0</v>
@@ -6657,19 +7032,19 @@
       </c>
       <c r="AF29" s="3"/>
       <c r="AG29" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AH29" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AI29" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="AJ29" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="AK29" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:37" ht="15" customHeight="1">
@@ -6680,22 +7055,22 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D30" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E30" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F30" t="s">
         <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H30" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I30" t="s">
         <v>0</v>
@@ -6707,9 +7082,11 @@
         <v>0</v>
       </c>
       <c r="L30" s="3">
-        <v>45798</v>
-      </c>
-      <c r="M30" s="3"/>
+        <v>45771</v>
+      </c>
+      <c r="M30" s="3">
+        <v>45802</v>
+      </c>
       <c r="N30" t="s">
         <v>0</v>
       </c>
@@ -6717,16 +7094,16 @@
         <v>9</v>
       </c>
       <c r="P30" s="3">
-        <v>45798</v>
+        <v>45771</v>
       </c>
       <c r="Q30" t="s">
         <v>10</v>
       </c>
       <c r="R30" s="3">
-        <v>45881</v>
+        <v>45891</v>
       </c>
       <c r="S30" s="3">
-        <v>45881</v>
+        <v>45785</v>
       </c>
       <c r="T30" t="s">
         <v>0</v>
@@ -6766,19 +7143,19 @@
       </c>
       <c r="AF30" s="3"/>
       <c r="AG30" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AH30" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AI30" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="AJ30" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="AK30" t="s">
-        <v>143</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:37" ht="15" customHeight="1">
@@ -6789,22 +7166,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D31" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F31" t="s">
         <v>4</v>
       </c>
       <c r="G31" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H31" t="s">
-        <v>28</v>
+        <v>193</v>
       </c>
       <c r="I31" t="s">
         <v>0</v>
@@ -6816,28 +7193,28 @@
         <v>0</v>
       </c>
       <c r="L31" s="3">
-        <v>45820</v>
+        <v>45772</v>
       </c>
       <c r="M31" s="3">
-        <v>45850</v>
+        <v>45803</v>
       </c>
       <c r="N31" t="s">
         <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P31" s="3">
-        <v>45820</v>
+        <v>45772</v>
       </c>
       <c r="Q31" t="s">
         <v>10</v>
       </c>
       <c r="R31" s="3">
-        <v>45881</v>
+        <v>45891</v>
       </c>
       <c r="S31" s="3">
-        <v>45881</v>
+        <v>45793</v>
       </c>
       <c r="T31" t="s">
         <v>0</v>
@@ -6877,10 +7254,10 @@
       </c>
       <c r="AF31" s="3"/>
       <c r="AG31" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AH31" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AI31" t="s">
         <v>16</v>
@@ -6889,7 +7266,7 @@
         <v>17</v>
       </c>
       <c r="AK31" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:37" ht="15" customHeight="1">
@@ -6900,22 +7277,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D32" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E32" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H32" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I32" t="s">
         <v>0</v>
@@ -6927,26 +7304,26 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>45826</v>
+        <v>45798</v>
       </c>
       <c r="M32" s="3"/>
       <c r="N32" t="s">
         <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="P32" s="3">
-        <v>45826</v>
+        <v>45798</v>
       </c>
       <c r="Q32" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="R32" s="3">
-        <v>45882</v>
+        <v>45881</v>
       </c>
       <c r="S32" s="3">
-        <v>45882</v>
+        <v>45881</v>
       </c>
       <c r="T32" t="s">
         <v>0</v>
@@ -6973,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="AB32" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="AC32" s="4">
         <v>0</v>
@@ -6986,19 +7363,19 @@
       </c>
       <c r="AF32" s="3"/>
       <c r="AG32" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AH32" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AI32" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="AJ32" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="AK32" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:37" ht="15" customHeight="1">
@@ -7009,22 +7386,22 @@
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D33" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E33" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F33" t="s">
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H33" t="s">
-        <v>199</v>
+        <v>28</v>
       </c>
       <c r="I33" t="s">
         <v>0</v>
@@ -7036,26 +7413,28 @@
         <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>45834</v>
-      </c>
-      <c r="M33" s="3"/>
+        <v>45820</v>
+      </c>
+      <c r="M33" s="3">
+        <v>45850</v>
+      </c>
       <c r="N33" t="s">
         <v>0</v>
       </c>
       <c r="O33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P33" s="3">
-        <v>45834</v>
+        <v>45820</v>
       </c>
       <c r="Q33" t="s">
         <v>10</v>
       </c>
       <c r="R33" s="3">
-        <v>45835</v>
+        <v>45881</v>
       </c>
       <c r="S33" s="3">
-        <v>45835</v>
+        <v>45881</v>
       </c>
       <c r="T33" t="s">
         <v>0</v>
@@ -7095,10 +7474,10 @@
       </c>
       <c r="AF33" s="3"/>
       <c r="AG33" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AH33" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AI33" t="s">
         <v>16</v>
@@ -7107,7 +7486,7 @@
         <v>17</v>
       </c>
       <c r="AK33" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:37" ht="15" customHeight="1">
@@ -7118,22 +7497,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D34" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E34" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F34" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="G34" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H34" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I34" t="s">
         <v>0</v>
@@ -7145,26 +7524,26 @@
         <v>0</v>
       </c>
       <c r="L34" s="3">
-        <v>45835</v>
+        <v>45826</v>
       </c>
       <c r="M34" s="3"/>
       <c r="N34" t="s">
         <v>0</v>
       </c>
       <c r="O34" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="P34" s="3">
-        <v>45835</v>
+        <v>45826</v>
       </c>
       <c r="Q34" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="R34" s="3">
-        <v>45881</v>
+        <v>45882</v>
       </c>
       <c r="S34" s="3">
-        <v>45881</v>
+        <v>45882</v>
       </c>
       <c r="T34" t="s">
         <v>0</v>
@@ -7191,7 +7570,7 @@
         <v>0</v>
       </c>
       <c r="AB34" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="AC34" s="4">
         <v>0</v>
@@ -7204,10 +7583,10 @@
       </c>
       <c r="AF34" s="3"/>
       <c r="AG34" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AH34" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AI34" t="s">
         <v>16</v>
@@ -7216,7 +7595,7 @@
         <v>17</v>
       </c>
       <c r="AK34" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:37" ht="15" customHeight="1">
@@ -7227,22 +7606,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D35" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E35" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F35" t="s">
         <v>4</v>
       </c>
       <c r="G35" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H35" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I35" t="s">
         <v>0</v>
@@ -7254,11 +7633,9 @@
         <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>45845</v>
-      </c>
-      <c r="M35" s="3">
-        <v>45876</v>
-      </c>
+        <v>45834</v>
+      </c>
+      <c r="M35" s="3"/>
       <c r="N35" t="s">
         <v>0</v>
       </c>
@@ -7266,16 +7643,16 @@
         <v>10</v>
       </c>
       <c r="P35" s="3">
-        <v>45845</v>
+        <v>45834</v>
       </c>
       <c r="Q35" t="s">
         <v>10</v>
       </c>
       <c r="R35" s="3">
-        <v>45845</v>
+        <v>45835</v>
       </c>
       <c r="S35" s="3">
-        <v>45845</v>
+        <v>45835</v>
       </c>
       <c r="T35" t="s">
         <v>0</v>
@@ -7315,10 +7692,10 @@
       </c>
       <c r="AF35" s="3"/>
       <c r="AG35" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AH35" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AI35" t="s">
         <v>16</v>
@@ -7327,7 +7704,7 @@
         <v>17</v>
       </c>
       <c r="AK35" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:37" ht="15" customHeight="1">
@@ -7338,16 +7715,16 @@
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D36" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E36" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F36" t="s">
-        <v>210</v>
+        <v>4</v>
       </c>
       <c r="G36" t="s">
         <v>211</v>
@@ -7365,25 +7742,27 @@
         <v>0</v>
       </c>
       <c r="L36" s="3">
-        <v>45848</v>
+        <v>45835</v>
       </c>
       <c r="M36" s="3"/>
       <c r="N36" t="s">
         <v>0</v>
       </c>
       <c r="O36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P36" s="3">
-        <v>45848</v>
+        <v>45835</v>
       </c>
       <c r="Q36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R36" s="3">
-        <v>45848</v>
-      </c>
-      <c r="S36" s="3"/>
+        <v>45881</v>
+      </c>
+      <c r="S36" s="3">
+        <v>45881</v>
+      </c>
       <c r="T36" t="s">
         <v>0</v>
       </c>
@@ -7422,10 +7801,10 @@
       </c>
       <c r="AF36" s="3"/>
       <c r="AG36" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AH36" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AI36" t="s">
         <v>16</v>
@@ -7434,7 +7813,7 @@
         <v>17</v>
       </c>
       <c r="AK36" t="s">
-        <v>172</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:37" ht="15" customHeight="1">
@@ -7445,7 +7824,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D37" t="s">
         <v>213</v>
@@ -7472,10 +7851,10 @@
         <v>0</v>
       </c>
       <c r="L37" s="3">
-        <v>45875</v>
+        <v>45845</v>
       </c>
       <c r="M37" s="3">
-        <v>45907</v>
+        <v>45876</v>
       </c>
       <c r="N37" t="s">
         <v>0</v>
@@ -7484,16 +7863,16 @@
         <v>10</v>
       </c>
       <c r="P37" s="3">
-        <v>45875</v>
+        <v>45845</v>
       </c>
       <c r="Q37" t="s">
         <v>10</v>
       </c>
       <c r="R37" s="3">
-        <v>45891</v>
+        <v>45845</v>
       </c>
       <c r="S37" s="3">
-        <v>45876</v>
+        <v>45845</v>
       </c>
       <c r="T37" t="s">
         <v>0</v>
@@ -7533,10 +7912,10 @@
       </c>
       <c r="AF37" s="3"/>
       <c r="AG37" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AH37" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AI37" t="s">
         <v>16</v>
@@ -7545,7 +7924,7 @@
         <v>17</v>
       </c>
       <c r="AK37" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:37" ht="15" customHeight="1">
@@ -7556,7 +7935,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D38" t="s">
         <v>217</v>
@@ -7565,13 +7944,13 @@
         <v>218</v>
       </c>
       <c r="F38" t="s">
-        <v>4</v>
+        <v>219</v>
       </c>
       <c r="G38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H38" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I38" t="s">
         <v>0</v>
@@ -7583,11 +7962,9 @@
         <v>0</v>
       </c>
       <c r="L38" s="3">
-        <v>45877</v>
-      </c>
-      <c r="M38" s="3">
-        <v>45970</v>
-      </c>
+        <v>45848</v>
+      </c>
+      <c r="M38" s="3"/>
       <c r="N38" t="s">
         <v>0</v>
       </c>
@@ -7595,13 +7972,13 @@
         <v>9</v>
       </c>
       <c r="P38" s="3">
-        <v>45877</v>
+        <v>45848</v>
       </c>
       <c r="Q38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R38" s="3">
-        <v>45891</v>
+        <v>45848</v>
       </c>
       <c r="S38" s="3"/>
       <c r="T38" t="s">
@@ -7642,19 +8019,19 @@
       </c>
       <c r="AF38" s="3"/>
       <c r="AG38" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AH38" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AI38" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="AJ38" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="AK38" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:37" ht="15" customHeight="1">
@@ -7665,7 +8042,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D39" t="s">
         <v>222</v>
@@ -7692,26 +8069,28 @@
         <v>0</v>
       </c>
       <c r="L39" s="3">
-        <v>45898</v>
-      </c>
-      <c r="M39" s="3"/>
+        <v>45875</v>
+      </c>
+      <c r="M39" s="3">
+        <v>45907</v>
+      </c>
       <c r="N39" t="s">
         <v>0</v>
       </c>
       <c r="O39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P39" s="3">
-        <v>45898</v>
+        <v>45875</v>
       </c>
       <c r="Q39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R39" s="3">
-        <v>45898</v>
+        <v>45891</v>
       </c>
       <c r="S39" s="3">
-        <v>45898</v>
+        <v>45876</v>
       </c>
       <c r="T39" t="s">
         <v>0</v>
@@ -7751,19 +8130,19 @@
       </c>
       <c r="AF39" s="3"/>
       <c r="AG39" t="s">
-        <v>226</v>
+        <v>150</v>
       </c>
       <c r="AH39" t="s">
-        <v>227</v>
+        <v>151</v>
       </c>
       <c r="AI39" t="s">
-        <v>228</v>
+        <v>16</v>
       </c>
       <c r="AJ39" t="s">
-        <v>229</v>
+        <v>17</v>
       </c>
       <c r="AK39" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:37" ht="15" customHeight="1">
@@ -7774,22 +8153,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D40" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E40" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F40" t="s">
-        <v>210</v>
+        <v>4</v>
       </c>
       <c r="G40" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H40" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I40" t="s">
         <v>0</v>
@@ -7801,27 +8180,27 @@
         <v>0</v>
       </c>
       <c r="L40" s="3">
-        <v>45924</v>
-      </c>
-      <c r="M40" s="3"/>
+        <v>45877</v>
+      </c>
+      <c r="M40" s="3">
+        <v>45970</v>
+      </c>
       <c r="N40" t="s">
         <v>0</v>
       </c>
       <c r="O40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P40" s="3">
-        <v>45924</v>
+        <v>45877</v>
       </c>
       <c r="Q40" t="s">
         <v>10</v>
       </c>
       <c r="R40" s="3">
-        <v>45924</v>
-      </c>
-      <c r="S40" s="3">
-        <v>45924</v>
-      </c>
+        <v>45891</v>
+      </c>
+      <c r="S40" s="3"/>
       <c r="T40" t="s">
         <v>0</v>
       </c>
@@ -7860,19 +8239,19 @@
       </c>
       <c r="AF40" s="3"/>
       <c r="AG40" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AH40" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AI40" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AJ40" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AK40" t="s">
-        <v>65</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:37" ht="15" customHeight="1">
@@ -7883,22 +8262,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D41" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E41" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F41" t="s">
         <v>4</v>
       </c>
       <c r="G41" t="s">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="H41" t="s">
-        <v>28</v>
+        <v>234</v>
       </c>
       <c r="I41" t="s">
         <v>0</v>
@@ -7910,28 +8289,26 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>45929</v>
-      </c>
-      <c r="M41" s="3">
-        <v>45959</v>
-      </c>
+        <v>45898</v>
+      </c>
+      <c r="M41" s="3"/>
       <c r="N41" t="s">
         <v>0</v>
       </c>
       <c r="O41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P41" s="3">
-        <v>45929</v>
+        <v>45898</v>
       </c>
       <c r="Q41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R41" s="3">
-        <v>45929</v>
+        <v>45898</v>
       </c>
       <c r="S41" s="3">
-        <v>45929</v>
+        <v>45898</v>
       </c>
       <c r="T41" t="s">
         <v>0</v>
@@ -7971,19 +8348,19 @@
       </c>
       <c r="AF41" s="3"/>
       <c r="AG41" t="s">
-        <v>141</v>
+        <v>235</v>
       </c>
       <c r="AH41" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="AI41" t="s">
-        <v>16</v>
+        <v>237</v>
       </c>
       <c r="AJ41" t="s">
-        <v>17</v>
+        <v>238</v>
       </c>
       <c r="AK41" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:37" ht="15" customHeight="1">
@@ -7994,22 +8371,22 @@
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D42" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E42" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F42" t="s">
-        <v>4</v>
+        <v>219</v>
       </c>
       <c r="G42" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H42" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="I42" t="s">
         <v>0</v>
@@ -8021,11 +8398,9 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
-        <v>45930</v>
-      </c>
-      <c r="M42" s="3">
-        <v>45960</v>
-      </c>
+        <v>45924</v>
+      </c>
+      <c r="M42" s="3"/>
       <c r="N42" t="s">
         <v>0</v>
       </c>
@@ -8033,15 +8408,17 @@
         <v>10</v>
       </c>
       <c r="P42" s="3">
-        <v>45930</v>
+        <v>45924</v>
       </c>
       <c r="Q42" t="s">
         <v>10</v>
       </c>
       <c r="R42" s="3">
-        <v>45930</v>
-      </c>
-      <c r="S42" s="3"/>
+        <v>45924</v>
+      </c>
+      <c r="S42" s="3">
+        <v>45924</v>
+      </c>
       <c r="T42" t="s">
         <v>0</v>
       </c>
@@ -8080,19 +8457,19 @@
       </c>
       <c r="AF42" s="3"/>
       <c r="AG42" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AH42" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AI42" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="AJ42" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="AK42" t="s">
-        <v>240</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:37" ht="15" customHeight="1">
@@ -8103,22 +8480,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D43" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E43" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F43" t="s">
-        <v>210</v>
+        <v>4</v>
       </c>
       <c r="G43" t="s">
-        <v>243</v>
+        <v>27</v>
       </c>
       <c r="H43" t="s">
-        <v>244</v>
+        <v>28</v>
       </c>
       <c r="I43" t="s">
         <v>0</v>
@@ -8130,9 +8507,11 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>45937</v>
-      </c>
-      <c r="M43" s="3"/>
+        <v>45929</v>
+      </c>
+      <c r="M43" s="3">
+        <v>45959</v>
+      </c>
       <c r="N43" t="s">
         <v>0</v>
       </c>
@@ -8140,15 +8519,17 @@
         <v>10</v>
       </c>
       <c r="P43" s="3">
-        <v>45937</v>
+        <v>45929</v>
       </c>
       <c r="Q43" t="s">
         <v>10</v>
       </c>
       <c r="R43" s="3">
-        <v>45937</v>
-      </c>
-      <c r="S43" s="3"/>
+        <v>45929</v>
+      </c>
+      <c r="S43" s="3">
+        <v>45929</v>
+      </c>
       <c r="T43" t="s">
         <v>0</v>
       </c>
@@ -8187,19 +8568,19 @@
       </c>
       <c r="AF43" s="3"/>
       <c r="AG43" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AH43" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AI43" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="AJ43" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="AK43" t="s">
-        <v>240</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:37" ht="15" customHeight="1">
@@ -8210,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D44" t="s">
         <v>245</v>
@@ -8219,7 +8600,7 @@
         <v>246</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="G44" t="s">
         <v>247</v>
@@ -8237,22 +8618,26 @@
         <v>0</v>
       </c>
       <c r="L44" s="3">
-        <v>45944</v>
-      </c>
-      <c r="M44" s="3"/>
+        <v>45930</v>
+      </c>
+      <c r="M44" s="3">
+        <v>45960</v>
+      </c>
       <c r="N44" t="s">
         <v>0</v>
       </c>
       <c r="O44" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="P44" s="3">
-        <v>45944</v>
+        <v>45930</v>
       </c>
       <c r="Q44" t="s">
-        <v>0</v>
-      </c>
-      <c r="R44" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="R44" s="3">
+        <v>45930</v>
+      </c>
       <c r="S44" s="3"/>
       <c r="T44" t="s">
         <v>0</v>
@@ -8292,19 +8677,19 @@
       </c>
       <c r="AF44" s="3"/>
       <c r="AG44" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AH44" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AI44" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="AJ44" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="AK44" t="s">
-        <v>172</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" spans="1:37" ht="15" customHeight="1">
@@ -8315,22 +8700,22 @@
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D45" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E45" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F45" t="s">
-        <v>43</v>
+        <v>219</v>
       </c>
       <c r="G45" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H45" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I45" t="s">
         <v>0</v>
@@ -8342,22 +8727,24 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>45944</v>
+        <v>45937</v>
       </c>
       <c r="M45" s="3"/>
       <c r="N45" t="s">
         <v>0</v>
       </c>
       <c r="O45" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="P45" s="3">
-        <v>45944</v>
+        <v>45937</v>
       </c>
       <c r="Q45" t="s">
-        <v>0</v>
-      </c>
-      <c r="R45" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="R45" s="3">
+        <v>45937</v>
+      </c>
       <c r="S45" s="3"/>
       <c r="T45" t="s">
         <v>0</v>
@@ -8397,19 +8784,19 @@
       </c>
       <c r="AF45" s="3"/>
       <c r="AG45" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AH45" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AI45" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AJ45" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AK45" t="s">
-        <v>172</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46" spans="1:37" ht="15" customHeight="1">
@@ -8420,22 +8807,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D46" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E46" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="F46" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="G46" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H46" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="I46" t="s">
         <v>0</v>
@@ -8447,17 +8834,17 @@
         <v>0</v>
       </c>
       <c r="L46" s="3">
-        <v>45947</v>
+        <v>45944</v>
       </c>
       <c r="M46" s="3"/>
       <c r="N46" t="s">
         <v>0</v>
       </c>
       <c r="O46" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="P46" s="3">
-        <v>45947</v>
+        <v>45944</v>
       </c>
       <c r="Q46" t="s">
         <v>0</v>
@@ -8502,19 +8889,19 @@
       </c>
       <c r="AF46" s="3"/>
       <c r="AG46" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AH46" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AI46" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="AJ46" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="AK46" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:37" ht="15" customHeight="1">
@@ -8525,22 +8912,22 @@
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D47" t="s">
+        <v>258</v>
+      </c>
+      <c r="E47" t="s">
         <v>255</v>
       </c>
-      <c r="E47" t="s">
-        <v>256</v>
-      </c>
       <c r="F47" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G47" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H47" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I47" t="s">
         <v>0</v>
@@ -8552,27 +8939,23 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
-        <v>45960</v>
+        <v>45944</v>
       </c>
       <c r="M47" s="3"/>
       <c r="N47" t="s">
         <v>0</v>
       </c>
       <c r="O47" t="s">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="P47" s="3">
-        <v>45960</v>
+        <v>45944</v>
       </c>
       <c r="Q47" t="s">
-        <v>259</v>
-      </c>
-      <c r="R47" s="3">
-        <v>45960</v>
-      </c>
-      <c r="S47" s="3">
-        <v>45960</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
       <c r="T47" t="s">
         <v>0</v>
       </c>
@@ -8598,7 +8981,7 @@
         <v>0</v>
       </c>
       <c r="AB47" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="AC47" s="4">
         <v>0</v>
@@ -8611,19 +8994,19 @@
       </c>
       <c r="AF47" s="3"/>
       <c r="AG47" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AH47" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AI47" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="AJ47" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="AK47" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:37" ht="15" customHeight="1">
@@ -8634,13 +9017,13 @@
         <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D48" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E48" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="F48" t="s">
         <v>4</v>
@@ -8649,7 +9032,7 @@
         <v>262</v>
       </c>
       <c r="H48" t="s">
-        <v>158</v>
+        <v>263</v>
       </c>
       <c r="I48" t="s">
         <v>0</v>
@@ -8661,17 +9044,17 @@
         <v>0</v>
       </c>
       <c r="L48" s="3">
-        <v>45964</v>
+        <v>45947</v>
       </c>
       <c r="M48" s="3"/>
       <c r="N48" t="s">
         <v>0</v>
       </c>
       <c r="O48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P48" s="3">
-        <v>45964</v>
+        <v>45947</v>
       </c>
       <c r="Q48" t="s">
         <v>0</v>
@@ -8716,10 +9099,10 @@
       </c>
       <c r="AF48" s="3"/>
       <c r="AG48" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AH48" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AI48" t="s">
         <v>16</v>
@@ -8728,7 +9111,7 @@
         <v>17</v>
       </c>
       <c r="AK48" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:37" ht="15" customHeight="1">
@@ -8739,22 +9122,22 @@
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D49" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E49" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F49" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="G49" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H49" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I49" t="s">
         <v>0</v>
@@ -8766,27 +9149,27 @@
         <v>0</v>
       </c>
       <c r="L49" s="3">
-        <v>45904</v>
-      </c>
-      <c r="M49" s="3">
-        <v>46083</v>
-      </c>
+        <v>45960</v>
+      </c>
+      <c r="M49" s="3"/>
       <c r="N49" t="s">
         <v>0</v>
       </c>
       <c r="O49" t="s">
-        <v>59</v>
+        <v>268</v>
       </c>
       <c r="P49" s="3">
-        <v>45995</v>
+        <v>45960</v>
       </c>
       <c r="Q49" t="s">
-        <v>59</v>
+        <v>268</v>
       </c>
       <c r="R49" s="3">
-        <v>45995</v>
-      </c>
-      <c r="S49" s="3"/>
+        <v>45960</v>
+      </c>
+      <c r="S49" s="3">
+        <v>45960</v>
+      </c>
       <c r="T49" t="s">
         <v>0</v>
       </c>
@@ -8803,7 +9186,7 @@
         <v>0</v>
       </c>
       <c r="Y49" t="s">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="Z49" s="4">
         <v>0</v>
@@ -8812,7 +9195,7 @@
         <v>0</v>
       </c>
       <c r="AB49" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="AC49" s="4">
         <v>0</v>
@@ -8825,19 +9208,19 @@
       </c>
       <c r="AF49" s="3"/>
       <c r="AG49" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AH49" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AI49" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="AJ49" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="AK49" t="s">
-        <v>240</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:37" ht="15" customHeight="1">
@@ -8848,22 +9231,22 @@
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D50" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E50" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="F50" t="s">
         <v>4</v>
       </c>
       <c r="G50" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H50" t="s">
-        <v>270</v>
+        <v>167</v>
       </c>
       <c r="I50" t="s">
         <v>0</v>
@@ -8875,17 +9258,17 @@
         <v>0</v>
       </c>
       <c r="L50" s="3">
-        <v>46000</v>
+        <v>45964</v>
       </c>
       <c r="M50" s="3"/>
       <c r="N50" t="s">
         <v>0</v>
       </c>
       <c r="O50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P50" s="3">
-        <v>46000</v>
+        <v>45964</v>
       </c>
       <c r="Q50" t="s">
         <v>0</v>
@@ -8930,10 +9313,10 @@
       </c>
       <c r="AF50" s="3"/>
       <c r="AG50" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AH50" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AI50" t="s">
         <v>16</v>
@@ -8942,7 +9325,657 @@
         <v>17</v>
       </c>
       <c r="AK50" t="s">
-        <v>172</v>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:37" ht="15" customHeight="1">
+      <c r="A51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D51" t="s">
+        <v>272</v>
+      </c>
+      <c r="E51" t="s">
+        <v>143</v>
+      </c>
+      <c r="F51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51" t="s">
+        <v>273</v>
+      </c>
+      <c r="H51" t="s">
+        <v>274</v>
+      </c>
+      <c r="I51" t="s">
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
+        <v>0</v>
+      </c>
+      <c r="K51" t="s">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3">
+        <v>45904</v>
+      </c>
+      <c r="M51" s="3">
+        <v>46083</v>
+      </c>
+      <c r="N51" t="s">
+        <v>0</v>
+      </c>
+      <c r="O51" t="s">
+        <v>64</v>
+      </c>
+      <c r="P51" s="3">
+        <v>45995</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>64</v>
+      </c>
+      <c r="R51" s="3">
+        <v>45995</v>
+      </c>
+      <c r="S51" s="3"/>
+      <c r="T51" t="s">
+        <v>0</v>
+      </c>
+      <c r="U51" t="s">
+        <v>11</v>
+      </c>
+      <c r="V51" t="s">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>0</v>
+      </c>
+      <c r="X51" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z51" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC51" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="3"/>
+      <c r="AG51" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK51" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="52" spans="1:37" ht="15" customHeight="1">
+      <c r="A52" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D52" t="s">
+        <v>276</v>
+      </c>
+      <c r="E52" t="s">
+        <v>251</v>
+      </c>
+      <c r="F52" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" t="s">
+        <v>277</v>
+      </c>
+      <c r="H52" t="s">
+        <v>278</v>
+      </c>
+      <c r="I52" t="s">
+        <v>0</v>
+      </c>
+      <c r="J52" t="s">
+        <v>0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
+        <v>46000</v>
+      </c>
+      <c r="M52" s="3"/>
+      <c r="N52" t="s">
+        <v>0</v>
+      </c>
+      <c r="O52" t="s">
+        <v>10</v>
+      </c>
+      <c r="P52" s="3">
+        <v>46000</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>10</v>
+      </c>
+      <c r="R52" s="3">
+        <v>46000</v>
+      </c>
+      <c r="S52" s="3"/>
+      <c r="T52" t="s">
+        <v>0</v>
+      </c>
+      <c r="U52" t="s">
+        <v>11</v>
+      </c>
+      <c r="V52" t="s">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>0</v>
+      </c>
+      <c r="X52" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC52" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="3"/>
+      <c r="AG52" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK52" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="53" spans="1:37" ht="15" customHeight="1">
+      <c r="A53" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>147</v>
+      </c>
+      <c r="D53" t="s">
+        <v>279</v>
+      </c>
+      <c r="E53" t="s">
+        <v>280</v>
+      </c>
+      <c r="F53" t="s">
+        <v>48</v>
+      </c>
+      <c r="G53" t="s">
+        <v>281</v>
+      </c>
+      <c r="H53" t="s">
+        <v>282</v>
+      </c>
+      <c r="I53" t="s">
+        <v>0</v>
+      </c>
+      <c r="J53" t="s">
+        <v>0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3">
+        <v>46007</v>
+      </c>
+      <c r="M53" s="3"/>
+      <c r="N53" t="s">
+        <v>0</v>
+      </c>
+      <c r="O53" t="s">
+        <v>268</v>
+      </c>
+      <c r="P53" s="3">
+        <v>46007</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>268</v>
+      </c>
+      <c r="R53" s="3">
+        <v>46007</v>
+      </c>
+      <c r="S53" s="3">
+        <v>46007</v>
+      </c>
+      <c r="T53" t="s">
+        <v>0</v>
+      </c>
+      <c r="U53" t="s">
+        <v>11</v>
+      </c>
+      <c r="V53" t="s">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>0</v>
+      </c>
+      <c r="X53" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC53" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="3"/>
+      <c r="AG53" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ53" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:37" ht="15" customHeight="1">
+      <c r="A54" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>147</v>
+      </c>
+      <c r="D54" t="s">
+        <v>283</v>
+      </c>
+      <c r="E54" t="s">
+        <v>280</v>
+      </c>
+      <c r="F54" t="s">
+        <v>48</v>
+      </c>
+      <c r="G54" t="s">
+        <v>284</v>
+      </c>
+      <c r="H54" t="s">
+        <v>285</v>
+      </c>
+      <c r="I54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J54" t="s">
+        <v>0</v>
+      </c>
+      <c r="K54" t="s">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
+        <v>46007</v>
+      </c>
+      <c r="M54" s="3"/>
+      <c r="N54" t="s">
+        <v>0</v>
+      </c>
+      <c r="O54" t="s">
+        <v>268</v>
+      </c>
+      <c r="P54" s="3">
+        <v>46007</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>268</v>
+      </c>
+      <c r="R54" s="3">
+        <v>46007</v>
+      </c>
+      <c r="S54" s="3">
+        <v>46007</v>
+      </c>
+      <c r="T54" t="s">
+        <v>0</v>
+      </c>
+      <c r="U54" t="s">
+        <v>11</v>
+      </c>
+      <c r="V54" t="s">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>0</v>
+      </c>
+      <c r="X54" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC54" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="3"/>
+      <c r="AG54" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ54" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK54" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:37" ht="15" customHeight="1">
+      <c r="A55" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>147</v>
+      </c>
+      <c r="D55" t="s">
+        <v>286</v>
+      </c>
+      <c r="E55" t="s">
+        <v>251</v>
+      </c>
+      <c r="F55" t="s">
+        <v>4</v>
+      </c>
+      <c r="G55" t="s">
+        <v>287</v>
+      </c>
+      <c r="H55" t="s">
+        <v>288</v>
+      </c>
+      <c r="I55" t="s">
+        <v>0</v>
+      </c>
+      <c r="J55" t="s">
+        <v>0</v>
+      </c>
+      <c r="K55" t="s">
+        <v>0</v>
+      </c>
+      <c r="L55" s="3">
+        <v>46008</v>
+      </c>
+      <c r="M55" s="3"/>
+      <c r="N55" t="s">
+        <v>0</v>
+      </c>
+      <c r="O55" t="s">
+        <v>10</v>
+      </c>
+      <c r="P55" s="3">
+        <v>46008</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>10</v>
+      </c>
+      <c r="R55" s="3">
+        <v>46008</v>
+      </c>
+      <c r="S55" s="3"/>
+      <c r="T55" t="s">
+        <v>0</v>
+      </c>
+      <c r="U55" t="s">
+        <v>11</v>
+      </c>
+      <c r="V55" t="s">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>0</v>
+      </c>
+      <c r="X55" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC55" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF55" s="3"/>
+      <c r="AG55" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ55" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK55" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="56" spans="1:37" ht="15" customHeight="1">
+      <c r="A56" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>147</v>
+      </c>
+      <c r="D56" t="s">
+        <v>289</v>
+      </c>
+      <c r="E56" t="s">
+        <v>290</v>
+      </c>
+      <c r="F56" t="s">
+        <v>48</v>
+      </c>
+      <c r="G56" t="s">
+        <v>291</v>
+      </c>
+      <c r="H56" t="s">
+        <v>292</v>
+      </c>
+      <c r="I56" t="s">
+        <v>0</v>
+      </c>
+      <c r="J56" t="s">
+        <v>0</v>
+      </c>
+      <c r="K56" t="s">
+        <v>0</v>
+      </c>
+      <c r="L56" s="3">
+        <v>46010</v>
+      </c>
+      <c r="M56" s="3">
+        <v>46035</v>
+      </c>
+      <c r="N56" t="s">
+        <v>293</v>
+      </c>
+      <c r="O56" t="s">
+        <v>294</v>
+      </c>
+      <c r="P56" s="3">
+        <v>46009</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>180</v>
+      </c>
+      <c r="R56" s="3">
+        <v>46009</v>
+      </c>
+      <c r="S56" s="3"/>
+      <c r="T56" t="s">
+        <v>0</v>
+      </c>
+      <c r="U56" t="s">
+        <v>11</v>
+      </c>
+      <c r="V56" t="s">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>0</v>
+      </c>
+      <c r="X56" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z56" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC56" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="4">
+        <v>300</v>
+      </c>
+      <c r="AE56" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF56" s="3"/>
+      <c r="AG56" t="s">
+        <v>296</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>297</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>298</v>
+      </c>
+      <c r="AJ56" t="s">
+        <v>299</v>
+      </c>
+      <c r="AK56" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/attachments/Deviations Notifications_PS4.XLSX
+++ b/attachments/Deviations Notifications_PS4.XLSX
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="364">
   <si>
     <t/>
   </si>
@@ -115,7 +115,7 @@
     <t>Customer release to PLE</t>
   </si>
   <si>
-    <t>OSNO NOTI OSTS NOPT</t>
+    <t>NOCO NOTI ATCO NOPT</t>
   </si>
   <si>
     <t>310000000051</t>
@@ -130,7 +130,7 @@
     <t>HOSE ASSY AC -8 COMP TO COND MO-MT45</t>
   </si>
   <si>
-    <t>OSNO NOTI OSTS</t>
+    <t>NOCO NOTI OSTS DLFL</t>
   </si>
   <si>
     <t>310000000052</t>
@@ -337,121 +337,169 @@
     <t>600000017010</t>
   </si>
   <si>
+    <t>320000000121</t>
+  </si>
+  <si>
+    <t>Use flex duct with alum layer inner diam</t>
+  </si>
+  <si>
+    <t>5000263A</t>
+  </si>
+  <si>
+    <t>TUBE FLEX PAK 90mm x 0.08M</t>
+  </si>
+  <si>
+    <t>1011701</t>
+  </si>
+  <si>
+    <t>Air Cost Control US, LLC</t>
+  </si>
+  <si>
+    <t>320000000122</t>
+  </si>
+  <si>
+    <t>CS: STANDARD PARTS WPNA EC:358421/619886</t>
+  </si>
+  <si>
+    <t>5011501C</t>
+  </si>
+  <si>
+    <t>BRACKET SUPPORT THERMOSTAT</t>
+  </si>
+  <si>
+    <t>1009201</t>
+  </si>
+  <si>
+    <t>AL3 Inc</t>
+  </si>
+  <si>
+    <t>120000004415</t>
+  </si>
+  <si>
+    <t>SAMPL-P2</t>
+  </si>
+  <si>
+    <t>Supplier Sampling</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>New Product</t>
+  </si>
+  <si>
+    <t>320000000130</t>
+  </si>
+  <si>
+    <t>5013002A - Lake Air Resource to Wrico</t>
+  </si>
+  <si>
+    <t>5013002A</t>
+  </si>
+  <si>
+    <t>BRACKET CONTROL HEAD NEO 1 PROMASTER</t>
+  </si>
+  <si>
+    <t>1009446</t>
+  </si>
+  <si>
+    <t>Wrico Stamping Co - Griffiths</t>
+  </si>
+  <si>
+    <t>320000000131</t>
+  </si>
+  <si>
+    <t>Supplier change for trial coating</t>
+  </si>
+  <si>
+    <t>3318757A</t>
+  </si>
+  <si>
+    <t>SP WET PAINT RAL9005 - 3317805</t>
+  </si>
+  <si>
+    <t>1011872</t>
+  </si>
+  <si>
+    <t>Alex Bruintjes B.V.</t>
+  </si>
+  <si>
+    <t>OSNO NOTE</t>
+  </si>
+  <si>
+    <t>320000000132</t>
+  </si>
+  <si>
+    <t>3310288A</t>
+  </si>
+  <si>
+    <t>60S TM WP 9005 B PMMA L1100 W1800 R0</t>
+  </si>
+  <si>
+    <t>320000000140</t>
+  </si>
+  <si>
+    <t>CS: STANDARD PARTS WPNA EC:358621/620495</t>
+  </si>
+  <si>
+    <t>5013853B</t>
+  </si>
+  <si>
+    <t>LID ASSEMBLY THERMO E PLUS</t>
+  </si>
+  <si>
+    <t>600000018356</t>
+  </si>
+  <si>
+    <t>OSNO NOTE ATCO</t>
+  </si>
+  <si>
+    <t>320000000141</t>
+  </si>
+  <si>
+    <t>Use prior to validation</t>
+  </si>
+  <si>
+    <t>3319438A</t>
+  </si>
+  <si>
+    <t>SEAL 80S</t>
+  </si>
+  <si>
+    <t>1006291</t>
+  </si>
+  <si>
+    <t>Sand Profile GmbH</t>
+  </si>
+  <si>
+    <t>4500032518</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
     <t>OSNO NOTE OSTS</t>
   </si>
   <si>
-    <t>320000000121</t>
-  </si>
-  <si>
-    <t>Use flex duct with alum layer inner diam</t>
-  </si>
-  <si>
-    <t>5000263A</t>
-  </si>
-  <si>
-    <t>TUBE FLEX PAK 90mm x 0.08M</t>
-  </si>
-  <si>
-    <t>1011701</t>
-  </si>
-  <si>
-    <t>Air Cost Control US, LLC</t>
-  </si>
-  <si>
-    <t>320000000122</t>
-  </si>
-  <si>
-    <t>CS: STANDARD PARTS WPNA EC:358421/619886</t>
-  </si>
-  <si>
-    <t>5011501C</t>
-  </si>
-  <si>
-    <t>BRACKET SUPPORT THERMOSTAT</t>
-  </si>
-  <si>
-    <t>1009201</t>
-  </si>
-  <si>
-    <t>AL3 Inc</t>
-  </si>
-  <si>
-    <t>120000004415</t>
-  </si>
-  <si>
-    <t>SAMPL-P2</t>
-  </si>
-  <si>
-    <t>Supplier Sampling</t>
-  </si>
-  <si>
-    <t>0010</t>
-  </si>
-  <si>
-    <t>New Product</t>
-  </si>
-  <si>
-    <t>320000000130</t>
-  </si>
-  <si>
-    <t>5013002A - Lake Air Resource to Wrico</t>
-  </si>
-  <si>
-    <t>5013002A</t>
-  </si>
-  <si>
-    <t>BRACKET CONTROL HEAD NEO 1 PROMASTER</t>
-  </si>
-  <si>
-    <t>1009446</t>
-  </si>
-  <si>
-    <t>Wrico Stamping Co - Griffiths</t>
-  </si>
-  <si>
-    <t>320000000131</t>
-  </si>
-  <si>
-    <t>Supplier change for trial coating</t>
-  </si>
-  <si>
-    <t>3318757A</t>
-  </si>
-  <si>
-    <t>SP WET PAINT RAL9005 - 3317805</t>
-  </si>
-  <si>
-    <t>1011872</t>
-  </si>
-  <si>
-    <t>Alex Bruintjes B.V.</t>
-  </si>
-  <si>
-    <t>OSNO NOTE</t>
-  </si>
-  <si>
-    <t>320000000132</t>
-  </si>
-  <si>
-    <t>3310288A</t>
-  </si>
-  <si>
-    <t>60S TM WP 9005 B PMMA L1100 W1800 R0</t>
-  </si>
-  <si>
-    <t>320000000140</t>
-  </si>
-  <si>
-    <t>CS: STANDARD PARTS WPNA EC:358621/620495</t>
-  </si>
-  <si>
-    <t>5013853B</t>
-  </si>
-  <si>
-    <t>LID ASSEMBLY THERMO E PLUS</t>
-  </si>
-  <si>
-    <t>600000018356</t>
+    <t>320000000142</t>
+  </si>
+  <si>
+    <t>CS: STANDARD PARTS WPNA EC:359419/623922</t>
+  </si>
+  <si>
+    <t>5012814D</t>
+  </si>
+  <si>
+    <t>HVAC CONTROL NEO 2 TIE-IN</t>
+  </si>
+  <si>
+    <t>1009612</t>
+  </si>
+  <si>
+    <t>Globus Sistemas Electronicos Ltda</t>
+  </si>
+  <si>
+    <t>600000020108</t>
   </si>
   <si>
     <t>D3</t>
@@ -703,9 +751,6 @@
     <t>FUEL-FILTER</t>
   </si>
   <si>
-    <t>OSNO ATCO</t>
-  </si>
-  <si>
     <t>330000000090</t>
   </si>
   <si>
@@ -760,157 +805,193 @@
     <t>KIT HEATER CYPRUS UNIVERSAL</t>
   </si>
   <si>
+    <t>330000000094</t>
+  </si>
+  <si>
+    <t>Consume component not in BOM</t>
+  </si>
+  <si>
+    <t>5913684A</t>
+  </si>
+  <si>
+    <t>ASSY HI-RES SHUNT 900EX</t>
+  </si>
+  <si>
+    <t>330000000095</t>
+  </si>
+  <si>
+    <t>Use of 120V relay instead of 115V</t>
+  </si>
+  <si>
+    <t>2113227C</t>
+  </si>
+  <si>
+    <t>EC RELAY BOX 115V - 3x S-SERIE - 1P_BJT</t>
+  </si>
+  <si>
+    <t>330000000096</t>
+  </si>
+  <si>
+    <t>2113130A</t>
+  </si>
+  <si>
+    <t>EC RELAY BOX 115V - 2x S-SERIE - 1P_BJT</t>
+  </si>
+  <si>
+    <t>330000000097</t>
+  </si>
+  <si>
+    <t>5013874B</t>
+  </si>
+  <si>
+    <t>SMARTEMP CONTROL 3.0 BLUETOOTH KIT</t>
+  </si>
+  <si>
+    <t>NOCO DLFL</t>
+  </si>
+  <si>
+    <t>330000000100</t>
+  </si>
+  <si>
+    <t>Product used longer than BBD</t>
+  </si>
+  <si>
+    <t>3397566A</t>
+  </si>
+  <si>
+    <t>SABA MS FLOOR SL GREY 600ML</t>
+  </si>
+  <si>
+    <t>REUSP</t>
+  </si>
+  <si>
+    <t>330000000101</t>
+  </si>
+  <si>
+    <t>use old style label on smartemp</t>
+  </si>
+  <si>
+    <t>5010740B</t>
+  </si>
+  <si>
+    <t>330000000102</t>
+  </si>
+  <si>
+    <t>5013852B</t>
+  </si>
+  <si>
+    <t>ENCLOSURE BOX BASE THERMO E PLUS</t>
+  </si>
+  <si>
+    <t>600000018355</t>
+  </si>
+  <si>
+    <t>330000000103</t>
+  </si>
+  <si>
+    <t>5013913A</t>
+  </si>
+  <si>
+    <t>AT2000STC 12V D SMTP 3.0_BT SLEEPER KIT</t>
+  </si>
+  <si>
+    <t>330000000104</t>
+  </si>
+  <si>
+    <t>3D printed in PA12 instead of anod alu</t>
+  </si>
+  <si>
+    <t>3318285A</t>
+  </si>
+  <si>
+    <t>CONNECTOR DS LH W44</t>
+  </si>
+  <si>
+    <t>330000000105</t>
+  </si>
+  <si>
+    <t>3318286A</t>
+  </si>
+  <si>
+    <t>CONNECTOR DS RH W44</t>
+  </si>
+  <si>
+    <t>330000000106</t>
+  </si>
+  <si>
+    <t>5014251A</t>
+  </si>
+  <si>
+    <t>THERMO E PLUS 32 kW 24V HD EB KIT</t>
+  </si>
+  <si>
+    <t>330000000107</t>
+  </si>
+  <si>
+    <t>Hose clamp doesn't meet requirements</t>
+  </si>
+  <si>
+    <t>2112942A</t>
+  </si>
+  <si>
+    <t>12mm S_Steel 1.4547 clip 277-307mm</t>
+  </si>
+  <si>
+    <t>3-Medium</t>
+  </si>
+  <si>
+    <t>SAP_WFRT</t>
+  </si>
+  <si>
+    <t>30000000322</t>
+  </si>
+  <si>
+    <t>Q3-INT</t>
+  </si>
+  <si>
+    <t>Internal Complaint</t>
+  </si>
+  <si>
+    <t>0040</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
     <t>OSNO OSTS</t>
   </si>
   <si>
-    <t>330000000094</t>
-  </si>
-  <si>
-    <t>Consume component not in BOM</t>
-  </si>
-  <si>
-    <t>5913684A</t>
-  </si>
-  <si>
-    <t>ASSY HI-RES SHUNT 900EX</t>
-  </si>
-  <si>
-    <t>330000000095</t>
-  </si>
-  <si>
-    <t>Use of 120V relay instead of 115V</t>
-  </si>
-  <si>
-    <t>2113227C</t>
-  </si>
-  <si>
-    <t>EC RELAY BOX 115V - 3x S-SERIE - 1P_BJT</t>
-  </si>
-  <si>
-    <t>330000000096</t>
-  </si>
-  <si>
-    <t>2113130A</t>
-  </si>
-  <si>
-    <t>EC RELAY BOX 115V - 2x S-SERIE - 1P_BJT</t>
-  </si>
-  <si>
-    <t>330000000097</t>
-  </si>
-  <si>
-    <t>5013874B</t>
-  </si>
-  <si>
-    <t>SMARTEMP CONTROL 3.0 BLUETOOTH KIT</t>
-  </si>
-  <si>
-    <t>330000000100</t>
-  </si>
-  <si>
-    <t>Product used longer than BBD</t>
-  </si>
-  <si>
-    <t>3397566A</t>
-  </si>
-  <si>
-    <t>SABA MS FLOOR SL GREY 600ML</t>
-  </si>
-  <si>
-    <t>REUSP</t>
-  </si>
-  <si>
-    <t>330000000101</t>
-  </si>
-  <si>
-    <t>use old style label on smartemp</t>
-  </si>
-  <si>
-    <t>5010740B</t>
-  </si>
-  <si>
-    <t>330000000102</t>
-  </si>
-  <si>
-    <t>5013852B</t>
-  </si>
-  <si>
-    <t>ENCLOSURE BOX BASE THERMO E PLUS</t>
-  </si>
-  <si>
-    <t>600000018355</t>
-  </si>
-  <si>
-    <t>330000000103</t>
-  </si>
-  <si>
-    <t>5013913A</t>
-  </si>
-  <si>
-    <t>AT2000STC 12V D SMTP 3.0_BT SLEEPER KIT</t>
-  </si>
-  <si>
-    <t>330000000104</t>
-  </si>
-  <si>
-    <t>3D printed in PA12 instead of anod alu</t>
-  </si>
-  <si>
-    <t>3318285A</t>
-  </si>
-  <si>
-    <t>CONNECTOR DS LH W44</t>
-  </si>
-  <si>
-    <t>330000000105</t>
-  </si>
-  <si>
-    <t>3318286A</t>
-  </si>
-  <si>
-    <t>CONNECTOR DS RH W44</t>
-  </si>
-  <si>
-    <t>330000000106</t>
-  </si>
-  <si>
-    <t>5014251A</t>
-  </si>
-  <si>
-    <t>THERMO E PLUS 32 kW 24V HD EB KIT</t>
-  </si>
-  <si>
-    <t>330000000107</t>
-  </si>
-  <si>
-    <t>Hose clamp doesn't meet requirements</t>
-  </si>
-  <si>
-    <t>2112942A</t>
-  </si>
-  <si>
-    <t>12mm S_Steel 1.4547 clip 277-307mm</t>
-  </si>
-  <si>
-    <t>3-Medium</t>
-  </si>
-  <si>
-    <t>SAP_WFRT</t>
-  </si>
-  <si>
-    <t>30000000322</t>
-  </si>
-  <si>
-    <t>Q3-INT</t>
-  </si>
-  <si>
-    <t>Internal Complaint</t>
-  </si>
-  <si>
-    <t>0040</t>
-  </si>
-  <si>
-    <t>ME</t>
+    <t>330000000108</t>
+  </si>
+  <si>
+    <t>C-version ordered, B-version delivered</t>
+  </si>
+  <si>
+    <t>3398795C</t>
+  </si>
+  <si>
+    <t>INST INSTR 40S</t>
+  </si>
+  <si>
+    <t>330000000109</t>
+  </si>
+  <si>
+    <t>E-version ordered, C-version delivered</t>
+  </si>
+  <si>
+    <t>3397657E</t>
+  </si>
+  <si>
+    <t>INST INSTR LEAFLET MRF</t>
+  </si>
+  <si>
+    <t>330000000110</t>
+  </si>
+  <si>
+    <t>Build to PRINT without VKS Work Instruct</t>
+  </si>
+  <si>
+    <t>5014232C</t>
   </si>
   <si>
     <t>Exception</t>
@@ -2075,13 +2156,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture@0A@" descr="@0A@"/>
+        <xdr:cNvPr id="19" name="Picture@09@" descr="@09@"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
@@ -2173,13 +2254,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture@09@" descr="@09@"/>
+        <xdr:cNvPr id="21" name="Picture@0A@" descr="@0A@"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
@@ -2516,13 +2597,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture@0A@" descr="@0A@"/>
+        <xdr:cNvPr id="28" name="Picture@09@" descr="@09@"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
@@ -2565,13 +2646,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture@0A@" descr="@0A@"/>
+        <xdr:cNvPr id="29" name="Picture@09@" descr="@09@"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
@@ -2614,13 +2695,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture@09@" descr="@09@"/>
+        <xdr:cNvPr id="30" name="Picture@0A@" descr="@0A@"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
@@ -2761,13 +2842,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Picture@09@" descr="@09@"/>
+        <xdr:cNvPr id="33" name="Picture@0A@" descr="@0A@"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
@@ -2859,13 +2940,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Picture@0A@" descr="@0A@"/>
+        <xdr:cNvPr id="35" name="Picture@09@" descr="@09@"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
@@ -3006,7 +3087,56 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Picture@0A@" descr="@0A@"/>
+        <xdr:cNvPr id="38" name="Picture@09@" descr="@09@"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5334000" y="161925"/>
+          <a:ext cx="152400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture@0A@" descr="@0A@"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3044,18 +3174,67 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Picture@09@" descr="@09@"/>
+        <xdr:cNvPr id="40" name="Picture@0A@" descr="@0A@"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5334000" y="161925"/>
+          <a:ext cx="152400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture@09@" descr="@09@"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3093,18 +3272,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Picture@09@" descr="@09@"/>
+        <xdr:cNvPr id="42" name="Picture@09@" descr="@09@"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3142,18 +3321,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Picture@0A@" descr="@0A@"/>
+        <xdr:cNvPr id="43" name="Picture@0A@" descr="@0A@"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3191,122 +3370,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Picture@0A@" descr="@0A@"/>
+        <xdr:cNvPr id="44" name="Picture@0A@" descr="@0A@"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5334000" y="161925"/>
-          <a:ext cx="152400" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Picture@09@" descr="@09@"/>
-        <xdr:cNvPicPr preferRelativeResize="0">
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5334000" y="161925"/>
-          <a:ext cx="152400" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Picture@09@" descr="@09@"/>
-        <xdr:cNvPicPr preferRelativeResize="0">
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
@@ -3824,12 +3905,257 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Picture@0A@" descr="@0A@"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5334000" y="161925"/>
+          <a:ext cx="152400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Picture@0A@" descr="@0A@"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5334000" y="161925"/>
+          <a:ext cx="152400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Picture@09@" descr="@09@"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5334000" y="161925"/>
+          <a:ext cx="152400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture@09@" descr="@09@"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5334000" y="161925"/>
+          <a:ext cx="152400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Picture@09@" descr="@09@"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5334000" y="161925"/>
+          <a:ext cx="152400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK56"/>
+  <dimension ref="A1:AK61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3878,115 +4204,115 @@
   <sheetData>
     <row r="1" spans="1:37">
       <c r="A1" s="1" t="s">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>310</v>
+        <v>337</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>325</v>
+        <v>352</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>328</v>
+        <v>355</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>334</v>
+        <v>361</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>336</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="15" customHeight="1">
@@ -4262,9 +4588,11 @@
         <v>10</v>
       </c>
       <c r="R4" s="3">
-        <v>45968</v>
-      </c>
-      <c r="S4" s="3"/>
+        <v>46029</v>
+      </c>
+      <c r="S4" s="3">
+        <v>45971</v>
+      </c>
       <c r="T4" t="s">
         <v>0</v>
       </c>
@@ -4366,10 +4694,14 @@
         <v>45995</v>
       </c>
       <c r="Q5" t="s">
-        <v>0</v>
-      </c>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="R5" s="3">
+        <v>46029</v>
+      </c>
+      <c r="S5" s="3">
+        <v>46029</v>
+      </c>
       <c r="T5" t="s">
         <v>0</v>
       </c>
@@ -5358,9 +5690,11 @@
         <v>64</v>
       </c>
       <c r="R14" s="3">
-        <v>45820</v>
-      </c>
-      <c r="S14" s="3"/>
+        <v>46029</v>
+      </c>
+      <c r="S14" s="3">
+        <v>46029</v>
+      </c>
       <c r="T14" t="s">
         <v>0</v>
       </c>
@@ -5411,7 +5745,7 @@
         <v>78</v>
       </c>
       <c r="AK14" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:37" ht="15" customHeight="1">
@@ -5425,28 +5759,28 @@
         <v>45</v>
       </c>
       <c r="D15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" t="s">
         <v>109</v>
-      </c>
-      <c r="E15" t="s">
-        <v>110</v>
       </c>
       <c r="F15" t="s">
         <v>4</v>
       </c>
       <c r="G15" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" t="s">
         <v>111</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
         <v>112</v>
       </c>
-      <c r="I15" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>113</v>
-      </c>
-      <c r="K15" t="s">
-        <v>114</v>
       </c>
       <c r="L15" s="3">
         <v>45866</v>
@@ -5536,28 +5870,28 @@
         <v>45</v>
       </c>
       <c r="D16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" t="s">
         <v>115</v>
-      </c>
-      <c r="E16" t="s">
-        <v>116</v>
       </c>
       <c r="F16" t="s">
         <v>4</v>
       </c>
       <c r="G16" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" t="s">
         <v>117</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
         <v>118</v>
       </c>
-      <c r="I16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>119</v>
-      </c>
-      <c r="K16" t="s">
-        <v>120</v>
       </c>
       <c r="L16" s="3">
         <v>45881</v>
@@ -5599,7 +5933,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Z16" s="4">
         <v>0</v>
@@ -5621,16 +5955,16 @@
       </c>
       <c r="AF16" s="3"/>
       <c r="AG16" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH16" t="s">
         <v>122</v>
       </c>
-      <c r="AH16" t="s">
+      <c r="AI16" t="s">
         <v>123</v>
       </c>
-      <c r="AI16" t="s">
+      <c r="AJ16" t="s">
         <v>124</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>125</v>
       </c>
       <c r="AK16" t="s">
         <v>44</v>
@@ -5647,28 +5981,28 @@
         <v>45</v>
       </c>
       <c r="D17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" t="s">
         <v>126</v>
-      </c>
-      <c r="E17" t="s">
-        <v>127</v>
       </c>
       <c r="F17" t="s">
         <v>4</v>
       </c>
       <c r="G17" t="s">
+        <v>127</v>
+      </c>
+      <c r="H17" t="s">
         <v>128</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
         <v>129</v>
       </c>
-      <c r="I17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>130</v>
-      </c>
-      <c r="K17" t="s">
-        <v>131</v>
       </c>
       <c r="L17" s="3">
         <v>45931</v>
@@ -5758,28 +6092,28 @@
         <v>45</v>
       </c>
       <c r="D18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" t="s">
         <v>132</v>
-      </c>
-      <c r="E18" t="s">
-        <v>133</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
       </c>
       <c r="G18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H18" t="s">
         <v>134</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
         <v>135</v>
       </c>
-      <c r="I18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>136</v>
-      </c>
-      <c r="K18" t="s">
-        <v>137</v>
       </c>
       <c r="L18" s="3">
         <v>45943</v>
@@ -5851,7 +6185,7 @@
         <v>78</v>
       </c>
       <c r="AK18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:37" ht="15" customHeight="1">
@@ -5865,28 +6199,28 @@
         <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F19" t="s">
         <v>48</v>
       </c>
       <c r="G19" t="s">
+        <v>139</v>
+      </c>
+      <c r="H19" t="s">
         <v>140</v>
       </c>
-      <c r="H19" t="s">
-        <v>141</v>
-      </c>
       <c r="I19" t="s">
         <v>0</v>
       </c>
       <c r="J19" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" t="s">
         <v>136</v>
-      </c>
-      <c r="K19" t="s">
-        <v>137</v>
       </c>
       <c r="L19" s="3">
         <v>45943</v>
@@ -5956,7 +6290,7 @@
         <v>78</v>
       </c>
       <c r="AK19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:37" ht="15" customHeight="1">
@@ -5970,28 +6304,28 @@
         <v>45</v>
       </c>
       <c r="D20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" t="s">
         <v>142</v>
-      </c>
-      <c r="E20" t="s">
-        <v>143</v>
       </c>
       <c r="F20" t="s">
         <v>4</v>
       </c>
       <c r="G20" t="s">
+        <v>143</v>
+      </c>
+      <c r="H20" t="s">
         <v>144</v>
       </c>
-      <c r="H20" t="s">
-        <v>145</v>
-      </c>
       <c r="I20" t="s">
         <v>0</v>
       </c>
       <c r="J20" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" t="s">
-        <v>120</v>
       </c>
       <c r="L20" s="3">
         <v>46009</v>
@@ -6009,9 +6343,11 @@
         <v>46007</v>
       </c>
       <c r="Q20" t="s">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="R20" s="3">
+        <v>46051</v>
+      </c>
       <c r="S20" s="3"/>
       <c r="T20" t="s">
         <v>0</v>
@@ -6029,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z20" s="4">
         <v>0</v>
@@ -6063,7 +6399,7 @@
         <v>78</v>
       </c>
       <c r="AK20" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:37" ht="15" customHeight="1">
@@ -6074,58 +6410,54 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
         <v>147</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>148</v>
-      </c>
-      <c r="E21" t="s">
-        <v>149</v>
       </c>
       <c r="F21" t="s">
         <v>48</v>
       </c>
       <c r="G21" t="s">
-        <v>49</v>
+        <v>149</v>
       </c>
       <c r="H21" t="s">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="I21" t="s">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="K21" t="s">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="L21" s="3">
-        <v>45671</v>
-      </c>
-      <c r="M21" s="3">
-        <v>45711</v>
-      </c>
+        <v>46031</v>
+      </c>
+      <c r="M21" s="3"/>
       <c r="N21" t="s">
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="P21" s="3">
-        <v>45671</v>
+        <v>46031</v>
       </c>
       <c r="Q21" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="R21" s="3">
-        <v>45671</v>
-      </c>
-      <c r="S21" s="3">
-        <v>45671</v>
-      </c>
+        <v>46031</v>
+      </c>
+      <c r="S21" s="3"/>
       <c r="T21" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="U21" t="s">
         <v>11</v>
@@ -6149,32 +6481,32 @@
         <v>0</v>
       </c>
       <c r="AB21" t="s">
-        <v>54</v>
+        <v>154</v>
       </c>
       <c r="AC21" s="4">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="AD21" s="4">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="AE21" s="4">
         <v>0</v>
       </c>
       <c r="AF21" s="3"/>
       <c r="AG21" t="s">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="AH21" t="s">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="AI21" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="AJ21" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="AK21" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:37" ht="15" customHeight="1">
@@ -6185,54 +6517,52 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E22" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F22" t="s">
         <v>4</v>
       </c>
       <c r="G22" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H22" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I22" t="s">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="K22" t="s">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="L22" s="3">
-        <v>45686</v>
-      </c>
-      <c r="M22" s="3"/>
+        <v>46038</v>
+      </c>
+      <c r="M22" s="3">
+        <v>46136</v>
+      </c>
       <c r="N22" t="s">
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="P22" s="3">
-        <v>45686</v>
+        <v>46048</v>
       </c>
       <c r="Q22" t="s">
-        <v>10</v>
-      </c>
-      <c r="R22" s="3">
-        <v>45686</v>
-      </c>
-      <c r="S22" s="3">
-        <v>45686</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
       <c r="T22" t="s">
         <v>0</v>
       </c>
@@ -6249,7 +6579,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="s">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="Z22" s="4">
         <v>0</v>
@@ -6271,19 +6601,19 @@
       </c>
       <c r="AF22" s="3"/>
       <c r="AG22" t="s">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="AH22" t="s">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="AI22" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="AJ22" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="AK22" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:37" ht="15" customHeight="1">
@@ -6294,22 +6624,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D23" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E23" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="F23" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="G23" t="s">
-        <v>158</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s">
-        <v>159</v>
+        <v>50</v>
       </c>
       <c r="I23" t="s">
         <v>0</v>
@@ -6321,26 +6651,28 @@
         <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>45686</v>
-      </c>
-      <c r="M23" s="3"/>
+        <v>45671</v>
+      </c>
+      <c r="M23" s="3">
+        <v>45711</v>
+      </c>
       <c r="N23" t="s">
         <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="P23" s="3">
-        <v>45686</v>
+        <v>45671</v>
       </c>
       <c r="Q23" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="R23" s="3">
-        <v>45686</v>
+        <v>45671</v>
       </c>
       <c r="S23" s="3">
-        <v>45686</v>
+        <v>45671</v>
       </c>
       <c r="T23" t="s">
         <v>0</v>
@@ -6367,7 +6699,7 @@
         <v>0</v>
       </c>
       <c r="AB23" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="AC23" s="4">
         <v>0</v>
@@ -6380,10 +6712,10 @@
       </c>
       <c r="AF23" s="3"/>
       <c r="AG23" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="AH23" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="AI23" t="s">
         <v>16</v>
@@ -6392,7 +6724,7 @@
         <v>17</v>
       </c>
       <c r="AK23" t="s">
-        <v>70</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:37" ht="15" customHeight="1">
@@ -6403,22 +6735,22 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D24" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E24" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F24" t="s">
         <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="H24" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="I24" t="s">
         <v>0</v>
@@ -6489,10 +6821,10 @@
       </c>
       <c r="AF24" s="3"/>
       <c r="AG24" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="AH24" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="AI24" t="s">
         <v>16</v>
@@ -6512,22 +6844,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D25" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E25" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F25" t="s">
         <v>4</v>
       </c>
       <c r="G25" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="H25" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="I25" t="s">
         <v>0</v>
@@ -6539,26 +6871,26 @@
         <v>0</v>
       </c>
       <c r="L25" s="3">
-        <v>45705</v>
+        <v>45686</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" t="s">
         <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P25" s="3">
-        <v>45705</v>
+        <v>45686</v>
       </c>
       <c r="Q25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R25" s="3">
-        <v>45706</v>
+        <v>45686</v>
       </c>
       <c r="S25" s="3">
-        <v>45706</v>
+        <v>45686</v>
       </c>
       <c r="T25" t="s">
         <v>0</v>
@@ -6598,10 +6930,10 @@
       </c>
       <c r="AF25" s="3"/>
       <c r="AG25" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="AH25" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="AI25" t="s">
         <v>16</v>
@@ -6610,7 +6942,7 @@
         <v>17</v>
       </c>
       <c r="AK25" t="s">
-        <v>152</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:37" ht="15" customHeight="1">
@@ -6621,22 +6953,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D26" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E26" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="F26" t="s">
         <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="H26" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="I26" t="s">
         <v>0</v>
@@ -6648,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>45714</v>
+        <v>45686</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" t="s">
@@ -6658,16 +6990,16 @@
         <v>10</v>
       </c>
       <c r="P26" s="3">
-        <v>45715</v>
+        <v>45686</v>
       </c>
       <c r="Q26" t="s">
         <v>10</v>
       </c>
       <c r="R26" s="3">
-        <v>45748</v>
+        <v>45686</v>
       </c>
       <c r="S26" s="3">
-        <v>45748</v>
+        <v>45686</v>
       </c>
       <c r="T26" t="s">
         <v>0</v>
@@ -6707,16 +7039,16 @@
       </c>
       <c r="AF26" s="3"/>
       <c r="AG26" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="AH26" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="AI26" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="AJ26" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AK26" t="s">
         <v>70</v>
@@ -6730,22 +7062,22 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D27" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E27" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="F27" t="s">
         <v>4</v>
       </c>
       <c r="G27" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="H27" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="I27" t="s">
         <v>0</v>
@@ -6757,26 +7089,26 @@
         <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>45727</v>
+        <v>45705</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" t="s">
         <v>0</v>
       </c>
       <c r="O27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P27" s="3">
-        <v>45727</v>
+        <v>45705</v>
       </c>
       <c r="Q27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R27" s="3">
-        <v>45748</v>
+        <v>45706</v>
       </c>
       <c r="S27" s="3">
-        <v>45748</v>
+        <v>45706</v>
       </c>
       <c r="T27" t="s">
         <v>0</v>
@@ -6816,19 +7148,19 @@
       </c>
       <c r="AF27" s="3"/>
       <c r="AG27" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="AH27" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="AI27" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="AJ27" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AK27" t="s">
-        <v>70</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:37" ht="15" customHeight="1">
@@ -6839,22 +7171,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D28" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="E28" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="G28" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="H28" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="I28" t="s">
         <v>0</v>
@@ -6866,25 +7198,27 @@
         <v>0</v>
       </c>
       <c r="L28" s="3">
-        <v>45737</v>
+        <v>45714</v>
       </c>
       <c r="M28" s="3"/>
       <c r="N28" t="s">
         <v>0</v>
       </c>
       <c r="O28" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="P28" s="3">
-        <v>45737</v>
+        <v>45715</v>
       </c>
       <c r="Q28" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="R28" s="3">
-        <v>45779</v>
-      </c>
-      <c r="S28" s="3"/>
+        <v>45748</v>
+      </c>
+      <c r="S28" s="3">
+        <v>45748</v>
+      </c>
       <c r="T28" t="s">
         <v>0</v>
       </c>
@@ -6923,10 +7257,10 @@
       </c>
       <c r="AF28" s="3"/>
       <c r="AG28" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="AH28" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="AI28" t="s">
         <v>77</v>
@@ -6935,7 +7269,7 @@
         <v>78</v>
       </c>
       <c r="AK28" t="s">
-        <v>181</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:37" ht="15" customHeight="1">
@@ -6946,22 +7280,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D29" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E29" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F29" t="s">
         <v>4</v>
       </c>
       <c r="G29" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="H29" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="I29" t="s">
         <v>0</v>
@@ -6973,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
-        <v>45744</v>
+        <v>45727</v>
       </c>
       <c r="M29" s="3"/>
       <c r="N29" t="s">
@@ -6983,7 +7317,7 @@
         <v>10</v>
       </c>
       <c r="P29" s="3">
-        <v>45744</v>
+        <v>45727</v>
       </c>
       <c r="Q29" t="s">
         <v>10</v>
@@ -7032,10 +7366,10 @@
       </c>
       <c r="AF29" s="3"/>
       <c r="AG29" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="AH29" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="AI29" t="s">
         <v>77</v>
@@ -7055,22 +7389,22 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D30" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F30" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="G30" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="H30" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="I30" t="s">
         <v>0</v>
@@ -7082,29 +7416,25 @@
         <v>0</v>
       </c>
       <c r="L30" s="3">
-        <v>45771</v>
-      </c>
-      <c r="M30" s="3">
-        <v>45802</v>
-      </c>
+        <v>45737</v>
+      </c>
+      <c r="M30" s="3"/>
       <c r="N30" t="s">
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>9</v>
+        <v>196</v>
       </c>
       <c r="P30" s="3">
-        <v>45771</v>
+        <v>45737</v>
       </c>
       <c r="Q30" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="R30" s="3">
-        <v>45891</v>
-      </c>
-      <c r="S30" s="3">
-        <v>45785</v>
-      </c>
+        <v>45779</v>
+      </c>
+      <c r="S30" s="3"/>
       <c r="T30" t="s">
         <v>0</v>
       </c>
@@ -7143,19 +7473,19 @@
       </c>
       <c r="AF30" s="3"/>
       <c r="AG30" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="AH30" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="AI30" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="AJ30" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="AK30" t="s">
-        <v>70</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:37" ht="15" customHeight="1">
@@ -7166,22 +7496,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D31" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="E31" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="F31" t="s">
         <v>4</v>
       </c>
       <c r="G31" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="H31" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="I31" t="s">
         <v>0</v>
@@ -7193,11 +7523,9 @@
         <v>0</v>
       </c>
       <c r="L31" s="3">
-        <v>45772</v>
-      </c>
-      <c r="M31" s="3">
-        <v>45803</v>
-      </c>
+        <v>45744</v>
+      </c>
+      <c r="M31" s="3"/>
       <c r="N31" t="s">
         <v>0</v>
       </c>
@@ -7205,16 +7533,16 @@
         <v>10</v>
       </c>
       <c r="P31" s="3">
-        <v>45772</v>
+        <v>45744</v>
       </c>
       <c r="Q31" t="s">
         <v>10</v>
       </c>
       <c r="R31" s="3">
-        <v>45891</v>
+        <v>45748</v>
       </c>
       <c r="S31" s="3">
-        <v>45793</v>
+        <v>45748</v>
       </c>
       <c r="T31" t="s">
         <v>0</v>
@@ -7254,16 +7582,16 @@
       </c>
       <c r="AF31" s="3"/>
       <c r="AG31" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="AH31" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="AI31" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="AJ31" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="AK31" t="s">
         <v>70</v>
@@ -7277,22 +7605,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D32" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="E32" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F32" t="s">
         <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="H32" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="I32" t="s">
         <v>0</v>
@@ -7304,9 +7632,11 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>45798</v>
-      </c>
-      <c r="M32" s="3"/>
+        <v>45771</v>
+      </c>
+      <c r="M32" s="3">
+        <v>45802</v>
+      </c>
       <c r="N32" t="s">
         <v>0</v>
       </c>
@@ -7314,16 +7644,16 @@
         <v>9</v>
       </c>
       <c r="P32" s="3">
-        <v>45798</v>
+        <v>45771</v>
       </c>
       <c r="Q32" t="s">
         <v>10</v>
       </c>
       <c r="R32" s="3">
-        <v>45881</v>
+        <v>45891</v>
       </c>
       <c r="S32" s="3">
-        <v>45881</v>
+        <v>45785</v>
       </c>
       <c r="T32" t="s">
         <v>0</v>
@@ -7363,19 +7693,19 @@
       </c>
       <c r="AF32" s="3"/>
       <c r="AG32" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="AH32" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="AI32" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="AJ32" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AK32" t="s">
-        <v>152</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:37" ht="15" customHeight="1">
@@ -7386,22 +7716,22 @@
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D33" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="E33" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F33" t="s">
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="H33" t="s">
-        <v>28</v>
+        <v>209</v>
       </c>
       <c r="I33" t="s">
         <v>0</v>
@@ -7413,28 +7743,28 @@
         <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>45820</v>
+        <v>45772</v>
       </c>
       <c r="M33" s="3">
-        <v>45850</v>
+        <v>45803</v>
       </c>
       <c r="N33" t="s">
         <v>0</v>
       </c>
       <c r="O33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P33" s="3">
-        <v>45820</v>
+        <v>45772</v>
       </c>
       <c r="Q33" t="s">
         <v>10</v>
       </c>
       <c r="R33" s="3">
-        <v>45881</v>
+        <v>45891</v>
       </c>
       <c r="S33" s="3">
-        <v>45881</v>
+        <v>45793</v>
       </c>
       <c r="T33" t="s">
         <v>0</v>
@@ -7474,10 +7804,10 @@
       </c>
       <c r="AF33" s="3"/>
       <c r="AG33" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="AH33" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="AI33" t="s">
         <v>16</v>
@@ -7497,22 +7827,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D34" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="E34" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="H34" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="I34" t="s">
         <v>0</v>
@@ -7524,26 +7854,26 @@
         <v>0</v>
       </c>
       <c r="L34" s="3">
-        <v>45826</v>
+        <v>45798</v>
       </c>
       <c r="M34" s="3"/>
       <c r="N34" t="s">
         <v>0</v>
       </c>
       <c r="O34" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="P34" s="3">
-        <v>45826</v>
+        <v>45798</v>
       </c>
       <c r="Q34" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="R34" s="3">
-        <v>45882</v>
+        <v>45881</v>
       </c>
       <c r="S34" s="3">
-        <v>45882</v>
+        <v>45881</v>
       </c>
       <c r="T34" t="s">
         <v>0</v>
@@ -7570,7 +7900,7 @@
         <v>0</v>
       </c>
       <c r="AB34" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="AC34" s="4">
         <v>0</v>
@@ -7583,19 +7913,19 @@
       </c>
       <c r="AF34" s="3"/>
       <c r="AG34" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="AH34" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="AI34" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="AJ34" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="AK34" t="s">
-        <v>18</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:37" ht="15" customHeight="1">
@@ -7606,22 +7936,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D35" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="E35" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F35" t="s">
         <v>4</v>
       </c>
       <c r="G35" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="H35" t="s">
-        <v>208</v>
+        <v>28</v>
       </c>
       <c r="I35" t="s">
         <v>0</v>
@@ -7633,26 +7963,28 @@
         <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>45834</v>
-      </c>
-      <c r="M35" s="3"/>
+        <v>45820</v>
+      </c>
+      <c r="M35" s="3">
+        <v>45850</v>
+      </c>
       <c r="N35" t="s">
         <v>0</v>
       </c>
       <c r="O35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P35" s="3">
-        <v>45834</v>
+        <v>45820</v>
       </c>
       <c r="Q35" t="s">
         <v>10</v>
       </c>
       <c r="R35" s="3">
-        <v>45835</v>
+        <v>45881</v>
       </c>
       <c r="S35" s="3">
-        <v>45835</v>
+        <v>45881</v>
       </c>
       <c r="T35" t="s">
         <v>0</v>
@@ -7692,10 +8024,10 @@
       </c>
       <c r="AF35" s="3"/>
       <c r="AG35" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="AH35" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="AI35" t="s">
         <v>16</v>
@@ -7715,22 +8047,22 @@
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D36" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E36" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="F36" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="G36" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="H36" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="I36" t="s">
         <v>0</v>
@@ -7742,26 +8074,26 @@
         <v>0</v>
       </c>
       <c r="L36" s="3">
-        <v>45835</v>
+        <v>45826</v>
       </c>
       <c r="M36" s="3"/>
       <c r="N36" t="s">
         <v>0</v>
       </c>
       <c r="O36" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="P36" s="3">
-        <v>45835</v>
+        <v>45826</v>
       </c>
       <c r="Q36" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="R36" s="3">
-        <v>45881</v>
+        <v>45882</v>
       </c>
       <c r="S36" s="3">
-        <v>45881</v>
+        <v>45882</v>
       </c>
       <c r="T36" t="s">
         <v>0</v>
@@ -7788,7 +8120,7 @@
         <v>0</v>
       </c>
       <c r="AB36" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="AC36" s="4">
         <v>0</v>
@@ -7801,10 +8133,10 @@
       </c>
       <c r="AF36" s="3"/>
       <c r="AG36" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="AH36" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="AI36" t="s">
         <v>16</v>
@@ -7813,7 +8145,7 @@
         <v>17</v>
       </c>
       <c r="AK36" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:37" ht="15" customHeight="1">
@@ -7824,22 +8156,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D37" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="E37" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="F37" t="s">
         <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="H37" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="I37" t="s">
         <v>0</v>
@@ -7851,11 +8183,9 @@
         <v>0</v>
       </c>
       <c r="L37" s="3">
-        <v>45845</v>
-      </c>
-      <c r="M37" s="3">
-        <v>45876</v>
-      </c>
+        <v>45834</v>
+      </c>
+      <c r="M37" s="3"/>
       <c r="N37" t="s">
         <v>0</v>
       </c>
@@ -7863,16 +8193,16 @@
         <v>10</v>
       </c>
       <c r="P37" s="3">
-        <v>45845</v>
+        <v>45834</v>
       </c>
       <c r="Q37" t="s">
         <v>10</v>
       </c>
       <c r="R37" s="3">
-        <v>45845</v>
+        <v>45835</v>
       </c>
       <c r="S37" s="3">
-        <v>45845</v>
+        <v>45835</v>
       </c>
       <c r="T37" t="s">
         <v>0</v>
@@ -7912,10 +8242,10 @@
       </c>
       <c r="AF37" s="3"/>
       <c r="AG37" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="AH37" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="AI37" t="s">
         <v>16</v>
@@ -7935,22 +8265,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D38" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="E38" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="F38" t="s">
-        <v>219</v>
+        <v>4</v>
       </c>
       <c r="G38" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="H38" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="I38" t="s">
         <v>0</v>
@@ -7962,25 +8292,27 @@
         <v>0</v>
       </c>
       <c r="L38" s="3">
-        <v>45848</v>
+        <v>45835</v>
       </c>
       <c r="M38" s="3"/>
       <c r="N38" t="s">
         <v>0</v>
       </c>
       <c r="O38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P38" s="3">
-        <v>45848</v>
+        <v>45835</v>
       </c>
       <c r="Q38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R38" s="3">
-        <v>45848</v>
-      </c>
-      <c r="S38" s="3"/>
+        <v>45881</v>
+      </c>
+      <c r="S38" s="3">
+        <v>45881</v>
+      </c>
       <c r="T38" t="s">
         <v>0</v>
       </c>
@@ -8019,10 +8351,10 @@
       </c>
       <c r="AF38" s="3"/>
       <c r="AG38" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="AH38" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="AI38" t="s">
         <v>16</v>
@@ -8031,7 +8363,7 @@
         <v>17</v>
       </c>
       <c r="AK38" t="s">
-        <v>181</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:37" ht="15" customHeight="1">
@@ -8042,22 +8374,22 @@
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D39" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="E39" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="F39" t="s">
         <v>4</v>
       </c>
       <c r="G39" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="H39" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="I39" t="s">
         <v>0</v>
@@ -8069,10 +8401,10 @@
         <v>0</v>
       </c>
       <c r="L39" s="3">
-        <v>45875</v>
+        <v>45845</v>
       </c>
       <c r="M39" s="3">
-        <v>45907</v>
+        <v>45876</v>
       </c>
       <c r="N39" t="s">
         <v>0</v>
@@ -8081,16 +8413,16 @@
         <v>10</v>
       </c>
       <c r="P39" s="3">
-        <v>45875</v>
+        <v>45845</v>
       </c>
       <c r="Q39" t="s">
         <v>10</v>
       </c>
       <c r="R39" s="3">
-        <v>45891</v>
+        <v>45845</v>
       </c>
       <c r="S39" s="3">
-        <v>45876</v>
+        <v>45845</v>
       </c>
       <c r="T39" t="s">
         <v>0</v>
@@ -8130,10 +8462,10 @@
       </c>
       <c r="AF39" s="3"/>
       <c r="AG39" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="AH39" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="AI39" t="s">
         <v>16</v>
@@ -8153,22 +8485,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D40" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E40" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="F40" t="s">
-        <v>4</v>
+        <v>235</v>
       </c>
       <c r="G40" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="H40" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="I40" t="s">
         <v>0</v>
@@ -8180,11 +8512,9 @@
         <v>0</v>
       </c>
       <c r="L40" s="3">
-        <v>45877</v>
-      </c>
-      <c r="M40" s="3">
-        <v>45970</v>
-      </c>
+        <v>45848</v>
+      </c>
+      <c r="M40" s="3"/>
       <c r="N40" t="s">
         <v>0</v>
       </c>
@@ -8192,15 +8522,17 @@
         <v>9</v>
       </c>
       <c r="P40" s="3">
-        <v>45877</v>
+        <v>45848</v>
       </c>
       <c r="Q40" t="s">
         <v>10</v>
       </c>
       <c r="R40" s="3">
-        <v>45891</v>
-      </c>
-      <c r="S40" s="3"/>
+        <v>46029</v>
+      </c>
+      <c r="S40" s="3">
+        <v>45863</v>
+      </c>
       <c r="T40" t="s">
         <v>0</v>
       </c>
@@ -8239,19 +8571,19 @@
       </c>
       <c r="AF40" s="3"/>
       <c r="AG40" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="AH40" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="AI40" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="AJ40" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AK40" t="s">
-        <v>230</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:37" ht="15" customHeight="1">
@@ -8262,22 +8594,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D41" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E41" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="F41" t="s">
         <v>4</v>
       </c>
       <c r="G41" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="H41" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="I41" t="s">
         <v>0</v>
@@ -8289,26 +8621,28 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>45898</v>
-      </c>
-      <c r="M41" s="3"/>
+        <v>45875</v>
+      </c>
+      <c r="M41" s="3">
+        <v>45907</v>
+      </c>
       <c r="N41" t="s">
         <v>0</v>
       </c>
       <c r="O41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P41" s="3">
-        <v>45898</v>
+        <v>45875</v>
       </c>
       <c r="Q41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R41" s="3">
-        <v>45898</v>
+        <v>45891</v>
       </c>
       <c r="S41" s="3">
-        <v>45898</v>
+        <v>45876</v>
       </c>
       <c r="T41" t="s">
         <v>0</v>
@@ -8348,16 +8682,16 @@
       </c>
       <c r="AF41" s="3"/>
       <c r="AG41" t="s">
-        <v>235</v>
+        <v>166</v>
       </c>
       <c r="AH41" t="s">
-        <v>236</v>
+        <v>167</v>
       </c>
       <c r="AI41" t="s">
-        <v>237</v>
+        <v>16</v>
       </c>
       <c r="AJ41" t="s">
-        <v>238</v>
+        <v>17</v>
       </c>
       <c r="AK41" t="s">
         <v>70</v>
@@ -8371,22 +8705,22 @@
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D42" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E42" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F42" t="s">
-        <v>219</v>
+        <v>4</v>
       </c>
       <c r="G42" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H42" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="I42" t="s">
         <v>0</v>
@@ -8398,26 +8732,28 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
-        <v>45924</v>
-      </c>
-      <c r="M42" s="3"/>
+        <v>45877</v>
+      </c>
+      <c r="M42" s="3">
+        <v>45970</v>
+      </c>
       <c r="N42" t="s">
         <v>0</v>
       </c>
       <c r="O42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P42" s="3">
-        <v>45924</v>
+        <v>45877</v>
       </c>
       <c r="Q42" t="s">
         <v>10</v>
       </c>
       <c r="R42" s="3">
-        <v>45924</v>
+        <v>46029</v>
       </c>
       <c r="S42" s="3">
-        <v>45924</v>
+        <v>45884</v>
       </c>
       <c r="T42" t="s">
         <v>0</v>
@@ -8457,10 +8793,10 @@
       </c>
       <c r="AF42" s="3"/>
       <c r="AG42" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="AH42" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="AI42" t="s">
         <v>77</v>
@@ -8480,22 +8816,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D43" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E43" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F43" t="s">
         <v>4</v>
       </c>
       <c r="G43" t="s">
-        <v>27</v>
+        <v>248</v>
       </c>
       <c r="H43" t="s">
-        <v>28</v>
+        <v>249</v>
       </c>
       <c r="I43" t="s">
         <v>0</v>
@@ -8507,28 +8843,26 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>45929</v>
-      </c>
-      <c r="M43" s="3">
-        <v>45959</v>
-      </c>
+        <v>45898</v>
+      </c>
+      <c r="M43" s="3"/>
       <c r="N43" t="s">
         <v>0</v>
       </c>
       <c r="O43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P43" s="3">
-        <v>45929</v>
+        <v>45898</v>
       </c>
       <c r="Q43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R43" s="3">
-        <v>45929</v>
+        <v>45898</v>
       </c>
       <c r="S43" s="3">
-        <v>45929</v>
+        <v>45898</v>
       </c>
       <c r="T43" t="s">
         <v>0</v>
@@ -8568,16 +8902,16 @@
       </c>
       <c r="AF43" s="3"/>
       <c r="AG43" t="s">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="AH43" t="s">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AI43" t="s">
-        <v>16</v>
+        <v>252</v>
       </c>
       <c r="AJ43" t="s">
-        <v>17</v>
+        <v>253</v>
       </c>
       <c r="AK43" t="s">
         <v>70</v>
@@ -8591,22 +8925,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D44" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="E44" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="F44" t="s">
-        <v>4</v>
+        <v>235</v>
       </c>
       <c r="G44" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="H44" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="I44" t="s">
         <v>0</v>
@@ -8618,11 +8952,9 @@
         <v>0</v>
       </c>
       <c r="L44" s="3">
-        <v>45930</v>
-      </c>
-      <c r="M44" s="3">
-        <v>45960</v>
-      </c>
+        <v>45924</v>
+      </c>
+      <c r="M44" s="3"/>
       <c r="N44" t="s">
         <v>0</v>
       </c>
@@ -8630,15 +8962,17 @@
         <v>10</v>
       </c>
       <c r="P44" s="3">
-        <v>45930</v>
+        <v>45924</v>
       </c>
       <c r="Q44" t="s">
         <v>10</v>
       </c>
       <c r="R44" s="3">
-        <v>45930</v>
-      </c>
-      <c r="S44" s="3"/>
+        <v>45924</v>
+      </c>
+      <c r="S44" s="3">
+        <v>45924</v>
+      </c>
       <c r="T44" t="s">
         <v>0</v>
       </c>
@@ -8677,19 +9011,19 @@
       </c>
       <c r="AF44" s="3"/>
       <c r="AG44" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="AH44" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="AI44" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="AJ44" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="AK44" t="s">
-        <v>249</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:37" ht="15" customHeight="1">
@@ -8700,22 +9034,22 @@
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D45" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="E45" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="F45" t="s">
-        <v>219</v>
+        <v>4</v>
       </c>
       <c r="G45" t="s">
-        <v>252</v>
+        <v>27</v>
       </c>
       <c r="H45" t="s">
-        <v>253</v>
+        <v>28</v>
       </c>
       <c r="I45" t="s">
         <v>0</v>
@@ -8727,9 +9061,11 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>45937</v>
-      </c>
-      <c r="M45" s="3"/>
+        <v>45929</v>
+      </c>
+      <c r="M45" s="3">
+        <v>45959</v>
+      </c>
       <c r="N45" t="s">
         <v>0</v>
       </c>
@@ -8737,15 +9073,17 @@
         <v>10</v>
       </c>
       <c r="P45" s="3">
-        <v>45937</v>
+        <v>45929</v>
       </c>
       <c r="Q45" t="s">
         <v>10</v>
       </c>
       <c r="R45" s="3">
-        <v>45937</v>
-      </c>
-      <c r="S45" s="3"/>
+        <v>45929</v>
+      </c>
+      <c r="S45" s="3">
+        <v>45929</v>
+      </c>
       <c r="T45" t="s">
         <v>0</v>
       </c>
@@ -8784,19 +9122,19 @@
       </c>
       <c r="AF45" s="3"/>
       <c r="AG45" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="AH45" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="AI45" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="AJ45" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AK45" t="s">
-        <v>249</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:37" ht="15" customHeight="1">
@@ -8807,22 +9145,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D46" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="E46" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F46" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="G46" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="H46" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="I46" t="s">
         <v>0</v>
@@ -8834,23 +9172,29 @@
         <v>0</v>
       </c>
       <c r="L46" s="3">
-        <v>45944</v>
-      </c>
-      <c r="M46" s="3"/>
+        <v>45930</v>
+      </c>
+      <c r="M46" s="3">
+        <v>45960</v>
+      </c>
       <c r="N46" t="s">
         <v>0</v>
       </c>
       <c r="O46" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="P46" s="3">
-        <v>45944</v>
+        <v>45930</v>
       </c>
       <c r="Q46" t="s">
-        <v>0</v>
-      </c>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="R46" s="3">
+        <v>46029</v>
+      </c>
+      <c r="S46" s="3">
+        <v>46021</v>
+      </c>
       <c r="T46" t="s">
         <v>0</v>
       </c>
@@ -8889,19 +9233,19 @@
       </c>
       <c r="AF46" s="3"/>
       <c r="AG46" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="AH46" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="AI46" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="AJ46" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AK46" t="s">
-        <v>181</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:37" ht="15" customHeight="1">
@@ -8912,22 +9256,22 @@
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D47" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="E47" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="F47" t="s">
-        <v>48</v>
+        <v>235</v>
       </c>
       <c r="G47" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="H47" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="I47" t="s">
         <v>0</v>
@@ -8939,23 +9283,27 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
-        <v>45944</v>
+        <v>45937</v>
       </c>
       <c r="M47" s="3"/>
       <c r="N47" t="s">
         <v>0</v>
       </c>
       <c r="O47" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="P47" s="3">
-        <v>45944</v>
+        <v>45937</v>
       </c>
       <c r="Q47" t="s">
-        <v>0</v>
-      </c>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="R47" s="3">
+        <v>46029</v>
+      </c>
+      <c r="S47" s="3">
+        <v>46029</v>
+      </c>
       <c r="T47" t="s">
         <v>0</v>
       </c>
@@ -8994,10 +9342,10 @@
       </c>
       <c r="AF47" s="3"/>
       <c r="AG47" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="AH47" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="AI47" t="s">
         <v>77</v>
@@ -9006,7 +9354,7 @@
         <v>78</v>
       </c>
       <c r="AK47" t="s">
-        <v>181</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:37" ht="15" customHeight="1">
@@ -9017,22 +9365,22 @@
         <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D48" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="E48" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="F48" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="G48" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="H48" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="I48" t="s">
         <v>0</v>
@@ -9044,17 +9392,17 @@
         <v>0</v>
       </c>
       <c r="L48" s="3">
-        <v>45947</v>
+        <v>45944</v>
       </c>
       <c r="M48" s="3"/>
       <c r="N48" t="s">
         <v>0</v>
       </c>
       <c r="O48" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="P48" s="3">
-        <v>45947</v>
+        <v>45944</v>
       </c>
       <c r="Q48" t="s">
         <v>0</v>
@@ -9099,19 +9447,19 @@
       </c>
       <c r="AF48" s="3"/>
       <c r="AG48" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="AH48" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="AI48" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="AJ48" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="AK48" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49" spans="1:37" ht="15" customHeight="1">
@@ -9122,22 +9470,22 @@
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D49" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="E49" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F49" t="s">
         <v>48</v>
       </c>
       <c r="G49" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="H49" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="I49" t="s">
         <v>0</v>
@@ -9149,27 +9497,23 @@
         <v>0</v>
       </c>
       <c r="L49" s="3">
-        <v>45960</v>
+        <v>45944</v>
       </c>
       <c r="M49" s="3"/>
       <c r="N49" t="s">
         <v>0</v>
       </c>
       <c r="O49" t="s">
-        <v>268</v>
+        <v>85</v>
       </c>
       <c r="P49" s="3">
-        <v>45960</v>
+        <v>45944</v>
       </c>
       <c r="Q49" t="s">
-        <v>268</v>
-      </c>
-      <c r="R49" s="3">
-        <v>45960</v>
-      </c>
-      <c r="S49" s="3">
-        <v>45960</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
       <c r="T49" t="s">
         <v>0</v>
       </c>
@@ -9195,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="AB49" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="AC49" s="4">
         <v>0</v>
@@ -9208,19 +9552,19 @@
       </c>
       <c r="AF49" s="3"/>
       <c r="AG49" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="AH49" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="AI49" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="AJ49" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="AK49" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
     </row>
     <row r="50" spans="1:37" ht="15" customHeight="1">
@@ -9231,22 +9575,22 @@
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D50" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E50" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F50" t="s">
         <v>4</v>
       </c>
       <c r="G50" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="H50" t="s">
-        <v>167</v>
+        <v>277</v>
       </c>
       <c r="I50" t="s">
         <v>0</v>
@@ -9258,23 +9602,27 @@
         <v>0</v>
       </c>
       <c r="L50" s="3">
-        <v>45964</v>
+        <v>45947</v>
       </c>
       <c r="M50" s="3"/>
       <c r="N50" t="s">
         <v>0</v>
       </c>
       <c r="O50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P50" s="3">
-        <v>45964</v>
+        <v>45947</v>
       </c>
       <c r="Q50" t="s">
-        <v>0</v>
-      </c>
-      <c r="R50" s="3"/>
-      <c r="S50" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="R50" s="3">
+        <v>46029</v>
+      </c>
+      <c r="S50" s="3">
+        <v>46029</v>
+      </c>
       <c r="T50" t="s">
         <v>0</v>
       </c>
@@ -9313,10 +9661,10 @@
       </c>
       <c r="AF50" s="3"/>
       <c r="AG50" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="AH50" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="AI50" t="s">
         <v>16</v>
@@ -9325,7 +9673,7 @@
         <v>17</v>
       </c>
       <c r="AK50" t="s">
-        <v>230</v>
+        <v>278</v>
       </c>
     </row>
     <row r="51" spans="1:37" ht="15" customHeight="1">
@@ -9336,22 +9684,22 @@
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D51" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="E51" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="F51" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="G51" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="H51" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="I51" t="s">
         <v>0</v>
@@ -9363,27 +9711,27 @@
         <v>0</v>
       </c>
       <c r="L51" s="3">
-        <v>45904</v>
-      </c>
-      <c r="M51" s="3">
-        <v>46083</v>
-      </c>
+        <v>45960</v>
+      </c>
+      <c r="M51" s="3"/>
       <c r="N51" t="s">
         <v>0</v>
       </c>
       <c r="O51" t="s">
-        <v>64</v>
+        <v>283</v>
       </c>
       <c r="P51" s="3">
-        <v>45995</v>
+        <v>45960</v>
       </c>
       <c r="Q51" t="s">
-        <v>64</v>
+        <v>283</v>
       </c>
       <c r="R51" s="3">
-        <v>45995</v>
-      </c>
-      <c r="S51" s="3"/>
+        <v>45960</v>
+      </c>
+      <c r="S51" s="3">
+        <v>45960</v>
+      </c>
       <c r="T51" t="s">
         <v>0</v>
       </c>
@@ -9400,7 +9748,7 @@
         <v>0</v>
       </c>
       <c r="Y51" t="s">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="Z51" s="4">
         <v>0</v>
@@ -9409,7 +9757,7 @@
         <v>0</v>
       </c>
       <c r="AB51" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="AC51" s="4">
         <v>0</v>
@@ -9422,19 +9770,19 @@
       </c>
       <c r="AF51" s="3"/>
       <c r="AG51" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="AH51" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="AI51" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="AJ51" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="AK51" t="s">
-        <v>249</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:37" ht="15" customHeight="1">
@@ -9445,22 +9793,22 @@
         <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D52" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E52" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="F52" t="s">
         <v>4</v>
       </c>
       <c r="G52" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="H52" t="s">
-        <v>278</v>
+        <v>183</v>
       </c>
       <c r="I52" t="s">
         <v>0</v>
@@ -9472,25 +9820,27 @@
         <v>0</v>
       </c>
       <c r="L52" s="3">
-        <v>46000</v>
+        <v>45964</v>
       </c>
       <c r="M52" s="3"/>
       <c r="N52" t="s">
         <v>0</v>
       </c>
       <c r="O52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P52" s="3">
-        <v>46000</v>
+        <v>45964</v>
       </c>
       <c r="Q52" t="s">
         <v>10</v>
       </c>
       <c r="R52" s="3">
-        <v>46000</v>
-      </c>
-      <c r="S52" s="3"/>
+        <v>46029</v>
+      </c>
+      <c r="S52" s="3">
+        <v>46029</v>
+      </c>
       <c r="T52" t="s">
         <v>0</v>
       </c>
@@ -9529,10 +9879,10 @@
       </c>
       <c r="AF52" s="3"/>
       <c r="AG52" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="AH52" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="AI52" t="s">
         <v>16</v>
@@ -9541,7 +9891,7 @@
         <v>17</v>
       </c>
       <c r="AK52" t="s">
-        <v>249</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:37" ht="15" customHeight="1">
@@ -9552,22 +9902,22 @@
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D53" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="E53" t="s">
-        <v>280</v>
+        <v>142</v>
       </c>
       <c r="F53" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="G53" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="H53" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="I53" t="s">
         <v>0</v>
@@ -9579,26 +9929,28 @@
         <v>0</v>
       </c>
       <c r="L53" s="3">
-        <v>46007</v>
-      </c>
-      <c r="M53" s="3"/>
+        <v>45904</v>
+      </c>
+      <c r="M53" s="3">
+        <v>46083</v>
+      </c>
       <c r="N53" t="s">
         <v>0</v>
       </c>
       <c r="O53" t="s">
-        <v>268</v>
+        <v>64</v>
       </c>
       <c r="P53" s="3">
-        <v>46007</v>
+        <v>45995</v>
       </c>
       <c r="Q53" t="s">
-        <v>268</v>
+        <v>64</v>
       </c>
       <c r="R53" s="3">
-        <v>46007</v>
+        <v>46029</v>
       </c>
       <c r="S53" s="3">
-        <v>46007</v>
+        <v>46029</v>
       </c>
       <c r="T53" t="s">
         <v>0</v>
@@ -9616,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="Y53" t="s">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="Z53" s="4">
         <v>0</v>
@@ -9638,16 +9990,16 @@
       </c>
       <c r="AF53" s="3"/>
       <c r="AG53" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="AH53" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="AI53" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="AJ53" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="AK53" t="s">
         <v>70</v>
@@ -9661,22 +10013,22 @@
         <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D54" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="E54" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="F54" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="G54" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="H54" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="I54" t="s">
         <v>0</v>
@@ -9688,26 +10040,26 @@
         <v>0</v>
       </c>
       <c r="L54" s="3">
-        <v>46007</v>
+        <v>46000</v>
       </c>
       <c r="M54" s="3"/>
       <c r="N54" t="s">
         <v>0</v>
       </c>
       <c r="O54" t="s">
-        <v>268</v>
+        <v>10</v>
       </c>
       <c r="P54" s="3">
-        <v>46007</v>
+        <v>46000</v>
       </c>
       <c r="Q54" t="s">
-        <v>268</v>
+        <v>10</v>
       </c>
       <c r="R54" s="3">
-        <v>46007</v>
+        <v>46029</v>
       </c>
       <c r="S54" s="3">
-        <v>46007</v>
+        <v>46029</v>
       </c>
       <c r="T54" t="s">
         <v>0</v>
@@ -9747,10 +10099,10 @@
       </c>
       <c r="AF54" s="3"/>
       <c r="AG54" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="AH54" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="AI54" t="s">
         <v>16</v>
@@ -9770,22 +10122,22 @@
         <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D55" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="E55" t="s">
-        <v>251</v>
+        <v>295</v>
       </c>
       <c r="F55" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="G55" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="H55" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="I55" t="s">
         <v>0</v>
@@ -9797,25 +10149,27 @@
         <v>0</v>
       </c>
       <c r="L55" s="3">
-        <v>46008</v>
+        <v>46007</v>
       </c>
       <c r="M55" s="3"/>
       <c r="N55" t="s">
         <v>0</v>
       </c>
       <c r="O55" t="s">
-        <v>10</v>
+        <v>283</v>
       </c>
       <c r="P55" s="3">
-        <v>46008</v>
+        <v>46007</v>
       </c>
       <c r="Q55" t="s">
-        <v>10</v>
+        <v>283</v>
       </c>
       <c r="R55" s="3">
-        <v>46008</v>
-      </c>
-      <c r="S55" s="3"/>
+        <v>46007</v>
+      </c>
+      <c r="S55" s="3">
+        <v>46007</v>
+      </c>
       <c r="T55" t="s">
         <v>0</v>
       </c>
@@ -9854,10 +10208,10 @@
       </c>
       <c r="AF55" s="3"/>
       <c r="AG55" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="AH55" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="AI55" t="s">
         <v>16</v>
@@ -9866,7 +10220,7 @@
         <v>17</v>
       </c>
       <c r="AK55" t="s">
-        <v>249</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:37" ht="15" customHeight="1">
@@ -9877,22 +10231,22 @@
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D56" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="E56" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F56" t="s">
         <v>48</v>
       </c>
       <c r="G56" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="H56" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="I56" t="s">
         <v>0</v>
@@ -9904,27 +10258,27 @@
         <v>0</v>
       </c>
       <c r="L56" s="3">
-        <v>46010</v>
-      </c>
-      <c r="M56" s="3">
-        <v>46035</v>
-      </c>
+        <v>46007</v>
+      </c>
+      <c r="M56" s="3"/>
       <c r="N56" t="s">
-        <v>293</v>
+        <v>0</v>
       </c>
       <c r="O56" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="P56" s="3">
-        <v>46009</v>
+        <v>46007</v>
       </c>
       <c r="Q56" t="s">
-        <v>180</v>
+        <v>283</v>
       </c>
       <c r="R56" s="3">
-        <v>46009</v>
-      </c>
-      <c r="S56" s="3"/>
+        <v>46007</v>
+      </c>
+      <c r="S56" s="3">
+        <v>46007</v>
+      </c>
       <c r="T56" t="s">
         <v>0</v>
       </c>
@@ -9941,7 +10295,7 @@
         <v>0</v>
       </c>
       <c r="Y56" t="s">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="Z56" s="4">
         <v>0</v>
@@ -9956,26 +10310,573 @@
         <v>0</v>
       </c>
       <c r="AD56" s="4">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AE56" s="4">
         <v>0</v>
       </c>
       <c r="AF56" s="3"/>
       <c r="AG56" t="s">
-        <v>296</v>
+        <v>166</v>
       </c>
       <c r="AH56" t="s">
-        <v>297</v>
+        <v>167</v>
       </c>
       <c r="AI56" t="s">
-        <v>298</v>
+        <v>16</v>
       </c>
       <c r="AJ56" t="s">
-        <v>299</v>
+        <v>17</v>
       </c>
       <c r="AK56" t="s">
-        <v>249</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:37" ht="15" customHeight="1">
+      <c r="A57" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>163</v>
+      </c>
+      <c r="D57" t="s">
+        <v>301</v>
+      </c>
+      <c r="E57" t="s">
+        <v>265</v>
+      </c>
+      <c r="F57" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" t="s">
+        <v>302</v>
+      </c>
+      <c r="H57" t="s">
+        <v>303</v>
+      </c>
+      <c r="I57" t="s">
+        <v>0</v>
+      </c>
+      <c r="J57" t="s">
+        <v>0</v>
+      </c>
+      <c r="K57" t="s">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
+        <v>46008</v>
+      </c>
+      <c r="M57" s="3">
+        <v>46039</v>
+      </c>
+      <c r="N57" t="s">
+        <v>0</v>
+      </c>
+      <c r="O57" t="s">
+        <v>10</v>
+      </c>
+      <c r="P57" s="3">
+        <v>46008</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>10</v>
+      </c>
+      <c r="R57" s="3">
+        <v>46029</v>
+      </c>
+      <c r="S57" s="3">
+        <v>46029</v>
+      </c>
+      <c r="T57" t="s">
+        <v>0</v>
+      </c>
+      <c r="U57" t="s">
+        <v>11</v>
+      </c>
+      <c r="V57" t="s">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>0</v>
+      </c>
+      <c r="X57" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC57" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="3"/>
+      <c r="AG57" t="s">
+        <v>166</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ57" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:37" ht="15" customHeight="1">
+      <c r="A58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>163</v>
+      </c>
+      <c r="D58" t="s">
+        <v>304</v>
+      </c>
+      <c r="E58" t="s">
+        <v>305</v>
+      </c>
+      <c r="F58" t="s">
+        <v>48</v>
+      </c>
+      <c r="G58" t="s">
+        <v>306</v>
+      </c>
+      <c r="H58" t="s">
+        <v>307</v>
+      </c>
+      <c r="I58" t="s">
+        <v>0</v>
+      </c>
+      <c r="J58" t="s">
+        <v>0</v>
+      </c>
+      <c r="K58" t="s">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>46010</v>
+      </c>
+      <c r="M58" s="3">
+        <v>46035</v>
+      </c>
+      <c r="N58" t="s">
+        <v>308</v>
+      </c>
+      <c r="O58" t="s">
+        <v>309</v>
+      </c>
+      <c r="P58" s="3">
+        <v>46009</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>196</v>
+      </c>
+      <c r="R58" s="3">
+        <v>46009</v>
+      </c>
+      <c r="S58" s="3"/>
+      <c r="T58" t="s">
+        <v>0</v>
+      </c>
+      <c r="U58" t="s">
+        <v>11</v>
+      </c>
+      <c r="V58" t="s">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>0</v>
+      </c>
+      <c r="X58" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z58" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC58" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="4">
+        <v>300</v>
+      </c>
+      <c r="AE58" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="3"/>
+      <c r="AG58" t="s">
+        <v>311</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>312</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>313</v>
+      </c>
+      <c r="AJ58" t="s">
+        <v>314</v>
+      </c>
+      <c r="AK58" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="59" spans="1:37" ht="15" customHeight="1">
+      <c r="A59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>163</v>
+      </c>
+      <c r="D59" t="s">
+        <v>316</v>
+      </c>
+      <c r="E59" t="s">
+        <v>317</v>
+      </c>
+      <c r="F59" t="s">
+        <v>48</v>
+      </c>
+      <c r="G59" t="s">
+        <v>318</v>
+      </c>
+      <c r="H59" t="s">
+        <v>319</v>
+      </c>
+      <c r="I59" t="s">
+        <v>0</v>
+      </c>
+      <c r="J59" t="s">
+        <v>0</v>
+      </c>
+      <c r="K59" t="s">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
+        <v>46034</v>
+      </c>
+      <c r="M59" s="3">
+        <v>46108</v>
+      </c>
+      <c r="N59" t="s">
+        <v>0</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" s="3">
+        <v>46034</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>53</v>
+      </c>
+      <c r="R59" s="3">
+        <v>46035</v>
+      </c>
+      <c r="S59" s="3"/>
+      <c r="T59" t="s">
+        <v>0</v>
+      </c>
+      <c r="U59" t="s">
+        <v>11</v>
+      </c>
+      <c r="V59" t="s">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>0</v>
+      </c>
+      <c r="X59" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC59" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="3"/>
+      <c r="AG59" t="s">
+        <v>166</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ59" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK59" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="60" spans="1:37" ht="15" customHeight="1">
+      <c r="A60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>163</v>
+      </c>
+      <c r="D60" t="s">
+        <v>320</v>
+      </c>
+      <c r="E60" t="s">
+        <v>321</v>
+      </c>
+      <c r="F60" t="s">
+        <v>48</v>
+      </c>
+      <c r="G60" t="s">
+        <v>322</v>
+      </c>
+      <c r="H60" t="s">
+        <v>323</v>
+      </c>
+      <c r="I60" t="s">
+        <v>0</v>
+      </c>
+      <c r="J60" t="s">
+        <v>0</v>
+      </c>
+      <c r="K60" t="s">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
+        <v>46034</v>
+      </c>
+      <c r="M60" s="3"/>
+      <c r="N60" t="s">
+        <v>0</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" s="3">
+        <v>46034</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>53</v>
+      </c>
+      <c r="R60" s="3">
+        <v>46035</v>
+      </c>
+      <c r="S60" s="3"/>
+      <c r="T60" t="s">
+        <v>0</v>
+      </c>
+      <c r="U60" t="s">
+        <v>11</v>
+      </c>
+      <c r="V60" t="s">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>0</v>
+      </c>
+      <c r="X60" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC60" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="3"/>
+      <c r="AG60" t="s">
+        <v>166</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ60" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK60" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="61" spans="1:37" ht="15" customHeight="1">
+      <c r="A61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>163</v>
+      </c>
+      <c r="D61" t="s">
+        <v>324</v>
+      </c>
+      <c r="E61" t="s">
+        <v>325</v>
+      </c>
+      <c r="F61" t="s">
+        <v>4</v>
+      </c>
+      <c r="G61" t="s">
+        <v>326</v>
+      </c>
+      <c r="H61" t="s">
+        <v>38</v>
+      </c>
+      <c r="I61" t="s">
+        <v>0</v>
+      </c>
+      <c r="J61" t="s">
+        <v>0</v>
+      </c>
+      <c r="K61" t="s">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
+        <v>46048</v>
+      </c>
+      <c r="M61" s="3">
+        <v>46079</v>
+      </c>
+      <c r="N61" t="s">
+        <v>0</v>
+      </c>
+      <c r="O61" t="s">
+        <v>10</v>
+      </c>
+      <c r="P61" s="3">
+        <v>46048</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>10</v>
+      </c>
+      <c r="R61" s="3">
+        <v>46049</v>
+      </c>
+      <c r="S61" s="3">
+        <v>46048</v>
+      </c>
+      <c r="T61" t="s">
+        <v>0</v>
+      </c>
+      <c r="U61" t="s">
+        <v>11</v>
+      </c>
+      <c r="V61" t="s">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>0</v>
+      </c>
+      <c r="X61" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC61" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="3"/>
+      <c r="AG61" t="s">
+        <v>166</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ61" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK61" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
